--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_VOC.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>141.7605968160457</v>
+        <v>628.3442669684184</v>
       </c>
       <c r="C2">
-        <v>0.004736471141474088</v>
+        <v>0.02099408830275001</v>
       </c>
       <c r="D2">
-        <v>1.713486430871589</v>
+        <v>7.594912828728125</v>
       </c>
       <c r="E2">
-        <v>1.160452904064602</v>
+        <v>5.143629088286346</v>
       </c>
       <c r="F2">
-        <v>0.8756577808286622</v>
+        <v>3.881293947456773</v>
       </c>
       <c r="G2">
-        <v>10.45569002222205</v>
+        <v>46.34413955795718</v>
       </c>
       <c r="H2">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I2">
-        <v>156.0032354503676</v>
+        <v>691.473800374602</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>162.8926112482511</v>
+        <v>722.0104931003565</v>
       </c>
       <c r="C3">
-        <v>0.005638656120802488</v>
+        <v>0.02499296226517858</v>
       </c>
       <c r="D3">
-        <v>1.142324287247726</v>
+        <v>5.063275219152085</v>
       </c>
       <c r="E3">
-        <v>0.6631159451797729</v>
+        <v>2.93921662187791</v>
       </c>
       <c r="F3">
-        <v>1.098552488675958</v>
+        <v>4.869259679536677</v>
       </c>
       <c r="G3">
-        <v>16.20631953444418</v>
+        <v>71.8334163148336</v>
       </c>
       <c r="I3">
-        <v>182.0085621599196</v>
+        <v>806.7406538980218</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>132.7354656522912</v>
+        <v>588.3409828912364</v>
       </c>
       <c r="C4">
-        <v>0.00405983240697779</v>
+        <v>0.01799493283092858</v>
       </c>
       <c r="D4">
-        <v>0.9043400607377834</v>
+        <v>4.008426215162066</v>
       </c>
       <c r="E4">
-        <v>1.119008157490867</v>
+        <v>4.959928049418976</v>
       </c>
       <c r="F4">
-        <v>0.8597367302681408</v>
+        <v>3.810724966593922</v>
       </c>
       <c r="G4">
-        <v>10.7170822727776</v>
+        <v>47.5027430469061</v>
       </c>
       <c r="H4">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I4">
-        <v>146.3723077311661</v>
+        <v>648.7853639976008</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>151.8863537314775</v>
+        <v>673.2260003233052</v>
       </c>
       <c r="C5">
-        <v>0.005413109875970388</v>
+        <v>0.02399324377457144</v>
       </c>
       <c r="D5">
-        <v>1.380308513757669</v>
+        <v>6.118124223142099</v>
       </c>
       <c r="E5">
-        <v>0.7460054383272446</v>
+        <v>3.30661869961265</v>
       </c>
       <c r="F5">
-        <v>0.8358551544273595</v>
+        <v>3.704871495299647</v>
       </c>
       <c r="G5">
-        <v>7.580375266110985</v>
+        <v>33.59950117951897</v>
       </c>
       <c r="H5">
-        <v>0.06523005038706378</v>
+        <v>0.2891277909048233</v>
       </c>
       <c r="I5">
-        <v>162.4995412643638</v>
+        <v>720.268236955558</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>144.4020986200714</v>
+        <v>640.0525452349103</v>
       </c>
       <c r="C6">
-        <v>0.007443026079459281</v>
+        <v>0.03299071019003572</v>
       </c>
       <c r="D6">
-        <v>1.142324287247726</v>
+        <v>5.063275219152085</v>
       </c>
       <c r="E6">
-        <v>0.7045606917535082</v>
+        <v>3.12291766074528</v>
       </c>
       <c r="F6">
-        <v>0.8278946291470987</v>
+        <v>3.669587004868221</v>
       </c>
       <c r="G6">
-        <v>10.19429777166649</v>
+        <v>45.18553606900825</v>
       </c>
       <c r="H6">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I6">
-        <v>157.2949265385624</v>
+        <v>697.1991338466004</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>141.5404716657102</v>
+        <v>627.3685771128775</v>
       </c>
       <c r="C7">
-        <v>0.004285378651809889</v>
+        <v>0.01899465132153572</v>
       </c>
       <c r="D7">
-        <v>0.9043400607377834</v>
+        <v>4.008426215162066</v>
       </c>
       <c r="E7">
-        <v>0.9532291711959237</v>
+        <v>4.225123893949497</v>
       </c>
       <c r="F7">
-        <v>0.9313814577904859</v>
+        <v>4.128285380476749</v>
       </c>
       <c r="G7">
-        <v>9.410121019999851</v>
+        <v>41.70972560216151</v>
       </c>
       <c r="H7">
-        <v>0.1467676133708935</v>
+        <v>0.6505375295358525</v>
       </c>
       <c r="I7">
-        <v>153.890596367457</v>
+        <v>682.1096703854847</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>136.4775932079943</v>
+        <v>604.9277104354343</v>
       </c>
       <c r="C8">
-        <v>0.006540841100130884</v>
+        <v>0.02899183622760716</v>
       </c>
       <c r="D8">
-        <v>0.9519369060397718</v>
+        <v>4.219396015960069</v>
       </c>
       <c r="E8">
-        <v>0.828894931474716</v>
+        <v>3.674020777347389</v>
       </c>
       <c r="F8">
-        <v>0.883618306108923</v>
+        <v>3.916578437888199</v>
       </c>
       <c r="G8">
-        <v>7.841767516666535</v>
+        <v>34.75810466846789</v>
       </c>
       <c r="H8">
-        <v>0.04892253779029784</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I8">
-        <v>147.0392742471746</v>
+        <v>651.7416480145042</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>152.9869794831548</v>
+        <v>678.1044496010106</v>
       </c>
       <c r="C9">
-        <v>0.00360873991731359</v>
+        <v>0.01599549584971429</v>
       </c>
       <c r="D9">
-        <v>1.903873812079544</v>
+        <v>8.438792031920139</v>
       </c>
       <c r="E9">
-        <v>0.9946739177696584</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F9">
-        <v>0.8676972555484017</v>
+        <v>3.846009457025348</v>
       </c>
       <c r="G9">
-        <v>5.750629512222127</v>
+        <v>25.48927675687646</v>
       </c>
       <c r="H9">
-        <v>0.04892253779029784</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I9">
-        <v>162.5563852584822</v>
+        <v>720.5201941186778</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>186.2258771838115</v>
+        <v>825.4336177877052</v>
       </c>
       <c r="C10">
-        <v>0.005413109875970388</v>
+        <v>0.02399324377457144</v>
       </c>
       <c r="D10">
-        <v>1.189921132549715</v>
+        <v>5.274245019950086</v>
       </c>
       <c r="E10">
-        <v>0.9117844246221872</v>
+        <v>4.041422855082126</v>
       </c>
       <c r="F10">
-        <v>0.7562499016247538</v>
+        <v>3.352026590985395</v>
       </c>
       <c r="G10">
-        <v>4.182276008888819</v>
+        <v>18.53765582318287</v>
       </c>
       <c r="H10">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I10">
-        <v>193.2878292739697</v>
+        <v>856.7352432684064</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>181.8233741771019</v>
+        <v>805.9198206768845</v>
       </c>
       <c r="C11">
-        <v>0.001578823713824696</v>
+        <v>0.006998029434250005</v>
       </c>
       <c r="D11">
-        <v>1.285114823153691</v>
+        <v>5.696184621546091</v>
       </c>
       <c r="E11">
-        <v>1.07756341091713</v>
+        <v>4.776227010551604</v>
       </c>
       <c r="F11">
-        <v>0.3980262640130283</v>
+        <v>1.76422452157126</v>
       </c>
       <c r="G11">
-        <v>2.613922505555513</v>
+        <v>11.58603488948929</v>
       </c>
       <c r="H11">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I11">
-        <v>187.2321950296486</v>
+        <v>829.8940536449293</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>160.2511094442255</v>
+        <v>710.3022148338646</v>
       </c>
       <c r="C12">
-        <v>0.002706554937985194</v>
+        <v>0.01199662188728572</v>
       </c>
       <c r="D12">
-        <v>0.9043400607377834</v>
+        <v>4.008426215162066</v>
       </c>
       <c r="E12">
-        <v>1.450566130080752</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F12">
-        <v>0.2865789100893803</v>
+        <v>1.270241655531308</v>
       </c>
       <c r="G12">
-        <v>4.443668259444371</v>
+        <v>19.69625931213181</v>
       </c>
       <c r="H12">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I12">
-        <v>167.3715843847093</v>
+        <v>741.8632388943875</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>125.9115859918915</v>
+        <v>558.0945973694649</v>
       </c>
       <c r="C13">
-        <v>0.001353277468992597</v>
+        <v>0.00599831094364286</v>
       </c>
       <c r="D13">
-        <v>0.7139526795298291</v>
+        <v>3.164547011970052</v>
       </c>
       <c r="E13">
-        <v>1.160452904064602</v>
+        <v>5.143629088286346</v>
       </c>
       <c r="F13">
-        <v>0.2547368089683381</v>
+        <v>1.129103693805607</v>
       </c>
       <c r="G13">
-        <v>2.352530254999963</v>
+        <v>10.42743140054038</v>
       </c>
       <c r="H13">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I13">
-        <v>130.41091942952</v>
+        <v>578.0375888227371</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>98.83619250062807</v>
+        <v>438.084745137919</v>
       </c>
       <c r="C14">
-        <v>0.002029916203488895</v>
+        <v>0.008997466415464291</v>
       </c>
       <c r="D14">
-        <v>0.6663558342278403</v>
+        <v>2.953577211172047</v>
       </c>
       <c r="E14">
-        <v>1.326231890359546</v>
+        <v>5.878433243755819</v>
       </c>
       <c r="F14">
-        <v>0.1671710308854718</v>
+        <v>0.7409742990599294</v>
       </c>
       <c r="G14">
-        <v>1.568353503333308</v>
+        <v>6.951620933693577</v>
       </c>
       <c r="I14">
-        <v>102.5663346756377</v>
+        <v>454.6183482920158</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>64.93691934896502</v>
+        <v>287.8285073846017</v>
       </c>
       <c r="C15">
-        <v>0.0009021849793283976</v>
+        <v>0.003998873962428573</v>
       </c>
       <c r="D15">
-        <v>0.2855810718119315</v>
+        <v>1.265818804788021</v>
       </c>
       <c r="E15">
-        <v>0.7460054383272446</v>
+        <v>3.30661869961265</v>
       </c>
       <c r="F15">
-        <v>0.1194078792039085</v>
+        <v>0.5292673564713782</v>
       </c>
       <c r="G15">
-        <v>1.829745753888859</v>
+        <v>8.110224422642508</v>
       </c>
       <c r="H15">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I15">
-        <v>67.93486918977305</v>
+        <v>301.1167174898048</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>33.67914800132762</v>
+        <v>149.2805478977765</v>
       </c>
       <c r="C16">
-        <v>0.002481008693153094</v>
+        <v>0.01099690339667858</v>
       </c>
       <c r="D16">
-        <v>0.3807747624159088</v>
+        <v>1.687758406384028</v>
       </c>
       <c r="E16">
-        <v>0.3315579725898865</v>
+        <v>1.469608310938955</v>
       </c>
       <c r="F16">
-        <v>0.1432894550446902</v>
+        <v>0.6351208277656538</v>
       </c>
       <c r="G16">
-        <v>1.306961252777756</v>
+        <v>5.793017444744647</v>
       </c>
       <c r="I16">
-        <v>35.84421245284901</v>
+        <v>158.8770497910064</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>23.11314078522484</v>
+        <v>102.4474348318073</v>
       </c>
       <c r="C17">
-        <v>0.001127731224160497</v>
+        <v>0.004998592453035716</v>
       </c>
       <c r="D17">
-        <v>0.0951936906039772</v>
+        <v>0.421939601596007</v>
       </c>
       <c r="F17">
-        <v>0.07164472752234508</v>
+        <v>0.3175604138828269</v>
       </c>
       <c r="G17">
-        <v>1.306961252777756</v>
+        <v>5.793017444744647</v>
       </c>
       <c r="I17">
-        <v>24.58806818735308</v>
+        <v>108.9849508844839</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>18.71063777851535</v>
+        <v>82.93363772098691</v>
       </c>
       <c r="C18">
-        <v>0.002255462448320995</v>
+        <v>0.009997184906071432</v>
       </c>
       <c r="D18">
-        <v>0.1903873812079544</v>
+        <v>0.8438792031920139</v>
       </c>
       <c r="E18">
-        <v>0.04144474657373581</v>
+        <v>0.1837010388673694</v>
       </c>
       <c r="F18">
-        <v>0.0955263033631268</v>
+        <v>0.4234138851771025</v>
       </c>
       <c r="G18">
-        <v>1.045569002222205</v>
+        <v>4.634413955795718</v>
       </c>
       <c r="H18">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I18">
-        <v>20.11843569952422</v>
+        <v>89.17360688437759</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>10.34588206576731</v>
+        <v>45.85742321042805</v>
       </c>
       <c r="C19">
-        <v>0.0006766387344962984</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D19">
-        <v>0.1903873812079544</v>
+        <v>0.8438792031920139</v>
       </c>
       <c r="F19">
-        <v>0.1034868286433873</v>
+        <v>0.4586983756085277</v>
       </c>
       <c r="G19">
-        <v>1.829745753888859</v>
+        <v>8.110224422642508</v>
       </c>
       <c r="I19">
-        <v>12.470178668242</v>
+        <v>55.27322436734293</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>10.12575691543183</v>
+        <v>44.88173335488703</v>
       </c>
       <c r="C20">
-        <v>0.0006766387344962984</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D20">
-        <v>0.1427905359059657</v>
+        <v>0.6329094023940106</v>
       </c>
       <c r="E20">
-        <v>0.1657789862949432</v>
+        <v>0.7348041554694774</v>
       </c>
       <c r="F20">
-        <v>0.06368420224208453</v>
+        <v>0.2822759234514017</v>
       </c>
       <c r="G20">
-        <v>0.5227845011111024</v>
+        <v>2.317206977897859</v>
       </c>
       <c r="I20">
-        <v>11.02147177972042</v>
+        <v>48.8519289695716</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>26.41501804025696</v>
+        <v>117.0827826649227</v>
       </c>
       <c r="C21">
-        <v>0.0002255462448320994</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D21">
-        <v>0.1903873812079544</v>
+        <v>0.8438792031920139</v>
       </c>
       <c r="E21">
-        <v>0.08288949314747161</v>
+        <v>0.3674020777347387</v>
       </c>
       <c r="F21">
-        <v>0.1034868286433873</v>
+        <v>0.4586983756085277</v>
       </c>
       <c r="G21">
-        <v>0.5227845011111024</v>
+        <v>2.317206977897859</v>
       </c>
       <c r="I21">
-        <v>27.31479179061171</v>
+        <v>121.0709690178465</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>76.1633020160742</v>
+        <v>337.5886900171936</v>
       </c>
       <c r="C22">
-        <v>0.001804369958656795</v>
+        <v>0.007997747924857147</v>
       </c>
       <c r="D22">
-        <v>0.7139526795298291</v>
+        <v>3.164547011970052</v>
       </c>
       <c r="E22">
-        <v>0.3730027191636223</v>
+        <v>1.653309349806325</v>
       </c>
       <c r="F22">
-        <v>0.3343420617709437</v>
+        <v>1.481948598119859</v>
       </c>
       <c r="G22">
-        <v>4.182276008888819</v>
+        <v>18.53765582318287</v>
       </c>
       <c r="I22">
-        <v>81.76867985538607</v>
+        <v>362.4341485481975</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>120.62858238384</v>
+        <v>534.6780408364804</v>
       </c>
       <c r="C23">
-        <v>0.003157647427649393</v>
+        <v>0.01399605886850001</v>
       </c>
       <c r="D23">
-        <v>0.7615495248318176</v>
+        <v>3.375516812768056</v>
       </c>
       <c r="E23">
-        <v>1.450566130080752</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F23">
-        <v>0.5970393960195424</v>
+        <v>2.64633678235689</v>
       </c>
       <c r="G23">
-        <v>8.625944268333191</v>
+        <v>38.23391513531467</v>
       </c>
       <c r="H23">
-        <v>0.08153756298382975</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I23">
-        <v>132.1483769135168</v>
+        <v>585.7387517247774</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>158.9303585422127</v>
+        <v>704.448075700618</v>
       </c>
       <c r="C24">
-        <v>0.002029916203488895</v>
+        <v>0.008997466415464291</v>
       </c>
       <c r="D24">
-        <v>1.189921132549715</v>
+        <v>5.274245019950086</v>
       </c>
       <c r="E24">
-        <v>1.57490036980196</v>
+        <v>6.980639476960037</v>
       </c>
       <c r="F24">
-        <v>0.6527630729813663</v>
+        <v>2.893328215376867</v>
       </c>
       <c r="G24">
-        <v>5.227845011111025</v>
+        <v>23.17206977897859</v>
       </c>
       <c r="H24">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I24">
-        <v>167.6104330700538</v>
+        <v>742.9219195537514</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>160.6913597448965</v>
+        <v>712.2535945449461</v>
       </c>
       <c r="C25">
-        <v>0.002255462448320995</v>
+        <v>0.009997184906071432</v>
       </c>
       <c r="D25">
-        <v>0.9519369060397718</v>
+        <v>4.219396015960069</v>
       </c>
       <c r="E25">
-        <v>1.07756341091713</v>
+        <v>4.776227010551604</v>
       </c>
       <c r="F25">
-        <v>0.493552567376155</v>
+        <v>2.187638406748363</v>
       </c>
       <c r="G25">
-        <v>7.841767516666535</v>
+        <v>34.75810466846789</v>
       </c>
       <c r="H25">
-        <v>0.09784507558059569</v>
+        <v>0.4336916863572351</v>
       </c>
       <c r="I25">
-        <v>171.156280683925</v>
+        <v>758.6386495179373</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>141.7605968160457</v>
+        <v>628.3442669684184</v>
       </c>
       <c r="C26">
-        <v>0.004736471141474088</v>
+        <v>0.02099408830275001</v>
       </c>
       <c r="D26">
-        <v>1.713486430871589</v>
+        <v>7.594912828728125</v>
       </c>
       <c r="E26">
-        <v>1.160452904064602</v>
+        <v>5.143629088286346</v>
       </c>
       <c r="F26">
-        <v>0.8756577808286622</v>
+        <v>3.881293947456773</v>
       </c>
       <c r="G26">
-        <v>10.45569002222205</v>
+        <v>46.34413955795718</v>
       </c>
       <c r="H26">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I26">
-        <v>156.0032354503676</v>
+        <v>691.473800374602</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>122.3895835865239</v>
+        <v>542.4835596808084</v>
       </c>
       <c r="C27">
-        <v>0.004736471141474088</v>
+        <v>0.02099408830275001</v>
       </c>
       <c r="D27">
-        <v>1.237517977851703</v>
+        <v>5.48521482074809</v>
       </c>
       <c r="E27">
-        <v>0.7045606917535082</v>
+        <v>3.12291766074528</v>
       </c>
       <c r="F27">
-        <v>1.026907761153613</v>
+        <v>4.551699265653851</v>
       </c>
       <c r="G27">
-        <v>7.318983015555436</v>
+        <v>32.44089769057003</v>
       </c>
       <c r="H27">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I27">
-        <v>132.6985970165764</v>
+        <v>588.1775651545546</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>138.8989698616844</v>
+        <v>615.6602988463853</v>
       </c>
       <c r="C28">
-        <v>0.006540841100130884</v>
+        <v>0.02899183622760716</v>
       </c>
       <c r="D28">
-        <v>1.237517977851703</v>
+        <v>5.48521482074809</v>
       </c>
       <c r="E28">
-        <v>0.9532291711959237</v>
+        <v>4.225123893949497</v>
       </c>
       <c r="F28">
-        <v>0.7960525280260565</v>
+        <v>3.52844904314252</v>
       </c>
       <c r="G28">
-        <v>10.45569002222205</v>
+        <v>46.34413955795718</v>
       </c>
       <c r="H28">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I28">
-        <v>152.3806154272738</v>
+        <v>675.4167818938625</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>126.5719614428979</v>
+        <v>561.0216669360881</v>
       </c>
       <c r="C29">
-        <v>0.005638656120802488</v>
+        <v>0.02499296226517858</v>
       </c>
       <c r="D29">
-        <v>1.332711668455681</v>
+        <v>5.907154422344093</v>
       </c>
       <c r="E29">
-        <v>0.7045606917535082</v>
+        <v>3.12291766074528</v>
       </c>
       <c r="F29">
-        <v>0.6527630729813663</v>
+        <v>2.893328215376867</v>
       </c>
       <c r="G29">
-        <v>4.443668259444371</v>
+        <v>19.69625931213181</v>
       </c>
       <c r="H29">
-        <v>0.04892253779029784</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I29">
-        <v>133.760226329444</v>
+        <v>592.8831653521299</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>127.8927123449107</v>
+        <v>566.875806069334</v>
       </c>
       <c r="C30">
-        <v>0.003383193672481491</v>
+        <v>0.01499577735910715</v>
       </c>
       <c r="D30">
-        <v>1.189921132549715</v>
+        <v>5.274245019950086</v>
       </c>
       <c r="E30">
-        <v>0.6216711986060369</v>
+        <v>2.755515583010541</v>
       </c>
       <c r="F30">
-        <v>0.7960525280260565</v>
+        <v>3.52844904314252</v>
       </c>
       <c r="G30">
-        <v>8.625944268333191</v>
+        <v>38.23391513531467</v>
       </c>
       <c r="H30">
-        <v>0.06523005038706378</v>
+        <v>0.2891277909048233</v>
       </c>
       <c r="I30">
-        <v>139.1949147164853</v>
+        <v>616.9720544190155</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>128.3329626455817</v>
+        <v>568.827185780416</v>
       </c>
       <c r="C31">
-        <v>0.004510924896641989</v>
+        <v>0.01999436981214286</v>
       </c>
       <c r="D31">
-        <v>1.523099049663635</v>
+        <v>6.751033625536111</v>
       </c>
       <c r="E31">
-        <v>0.6631159451797729</v>
+        <v>2.93921662187791</v>
       </c>
       <c r="F31">
-        <v>0.9313814577904859</v>
+        <v>4.128285380476749</v>
       </c>
       <c r="G31">
-        <v>5.489237261666574</v>
+        <v>24.33067326792751</v>
       </c>
       <c r="H31">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I31">
-        <v>136.9769223099724</v>
+        <v>607.1409529414989</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>134.2763417046395</v>
+        <v>595.1708118800236</v>
       </c>
       <c r="C32">
-        <v>0.005187563631138288</v>
+        <v>0.0229935252839643</v>
       </c>
       <c r="D32">
-        <v>1.189921132549715</v>
+        <v>5.274245019950086</v>
       </c>
       <c r="E32">
-        <v>0.8703396780484515</v>
+        <v>3.857721816214759</v>
       </c>
       <c r="F32">
-        <v>0.9313814577904859</v>
+        <v>4.128285380476749</v>
       </c>
       <c r="G32">
-        <v>6.012021762777675</v>
+        <v>26.6478802458254</v>
       </c>
       <c r="H32">
-        <v>0.04892253779029784</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I32">
-        <v>143.3341158372273</v>
+        <v>635.3187837109531</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>152.9869794831548</v>
+        <v>678.1044496010106</v>
       </c>
       <c r="C33">
-        <v>0.00360873991731359</v>
+        <v>0.01599549584971429</v>
       </c>
       <c r="D33">
-        <v>1.903873812079544</v>
+        <v>8.438792031920139</v>
       </c>
       <c r="E33">
-        <v>0.9946739177696584</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F33">
-        <v>0.8676972555484017</v>
+        <v>3.846009457025348</v>
       </c>
       <c r="G33">
-        <v>5.750629512222127</v>
+        <v>25.48927675687646</v>
       </c>
       <c r="H33">
-        <v>0.04892253779029784</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I33">
-        <v>162.5563852584822</v>
+        <v>720.5201941186778</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>186.2258771838115</v>
+        <v>825.4336177877052</v>
       </c>
       <c r="C34">
-        <v>0.005413109875970388</v>
+        <v>0.02399324377457144</v>
       </c>
       <c r="D34">
-        <v>1.189921132549715</v>
+        <v>5.274245019950086</v>
       </c>
       <c r="E34">
-        <v>0.9117844246221872</v>
+        <v>4.041422855082126</v>
       </c>
       <c r="F34">
-        <v>0.7562499016247538</v>
+        <v>3.352026590985395</v>
       </c>
       <c r="G34">
-        <v>4.182276008888819</v>
+        <v>18.53765582318287</v>
       </c>
       <c r="H34">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I34">
-        <v>193.2878292739697</v>
+        <v>856.7352432684064</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>181.8233741771019</v>
+        <v>805.9198206768845</v>
       </c>
       <c r="C35">
-        <v>0.001578823713824696</v>
+        <v>0.006998029434250005</v>
       </c>
       <c r="D35">
-        <v>1.285114823153691</v>
+        <v>5.696184621546091</v>
       </c>
       <c r="E35">
-        <v>1.07756341091713</v>
+        <v>4.776227010551604</v>
       </c>
       <c r="F35">
-        <v>0.3980262640130283</v>
+        <v>1.76422452157126</v>
       </c>
       <c r="G35">
-        <v>2.613922505555513</v>
+        <v>11.58603488948929</v>
       </c>
       <c r="H35">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I35">
-        <v>187.2321950296486</v>
+        <v>829.8940536449293</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>160.2511094442255</v>
+        <v>710.3022148338646</v>
       </c>
       <c r="C36">
-        <v>0.002706554937985194</v>
+        <v>0.01199662188728572</v>
       </c>
       <c r="D36">
-        <v>0.9043400607377834</v>
+        <v>4.008426215162066</v>
       </c>
       <c r="E36">
-        <v>1.450566130080752</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F36">
-        <v>0.2865789100893803</v>
+        <v>1.270241655531308</v>
       </c>
       <c r="G36">
-        <v>4.443668259444371</v>
+        <v>19.69625931213181</v>
       </c>
       <c r="H36">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I36">
-        <v>167.3715843847093</v>
+        <v>741.8632388943875</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>125.9115859918915</v>
+        <v>558.0945973694649</v>
       </c>
       <c r="C37">
-        <v>0.001353277468992597</v>
+        <v>0.00599831094364286</v>
       </c>
       <c r="D37">
-        <v>0.7139526795298291</v>
+        <v>3.164547011970052</v>
       </c>
       <c r="E37">
-        <v>1.160452904064602</v>
+        <v>5.143629088286346</v>
       </c>
       <c r="F37">
-        <v>0.2547368089683381</v>
+        <v>1.129103693805607</v>
       </c>
       <c r="G37">
-        <v>2.352530254999963</v>
+        <v>10.42743140054038</v>
       </c>
       <c r="H37">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I37">
-        <v>130.41091942952</v>
+        <v>578.0375888227371</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>98.83619250062807</v>
+        <v>438.084745137919</v>
       </c>
       <c r="C38">
-        <v>0.002029916203488895</v>
+        <v>0.008997466415464291</v>
       </c>
       <c r="D38">
-        <v>0.6663558342278403</v>
+        <v>2.953577211172047</v>
       </c>
       <c r="E38">
-        <v>1.326231890359546</v>
+        <v>5.878433243755819</v>
       </c>
       <c r="F38">
-        <v>0.1671710308854718</v>
+        <v>0.7409742990599294</v>
       </c>
       <c r="G38">
-        <v>1.568353503333308</v>
+        <v>6.951620933693577</v>
       </c>
       <c r="I38">
-        <v>102.5663346756377</v>
+        <v>454.6183482920158</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>64.93691934896502</v>
+        <v>287.8285073846017</v>
       </c>
       <c r="C39">
-        <v>0.0009021849793283976</v>
+        <v>0.003998873962428573</v>
       </c>
       <c r="D39">
-        <v>0.2855810718119315</v>
+        <v>1.265818804788021</v>
       </c>
       <c r="E39">
-        <v>0.7460054383272446</v>
+        <v>3.30661869961265</v>
       </c>
       <c r="F39">
-        <v>0.1194078792039085</v>
+        <v>0.5292673564713782</v>
       </c>
       <c r="G39">
-        <v>1.829745753888859</v>
+        <v>8.110224422642508</v>
       </c>
       <c r="H39">
-        <v>0.01630751259676595</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I39">
-        <v>67.93486918977305</v>
+        <v>301.1167174898048</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>33.67914800132762</v>
+        <v>149.2805478977765</v>
       </c>
       <c r="C40">
-        <v>0.002481008693153094</v>
+        <v>0.01099690339667858</v>
       </c>
       <c r="D40">
-        <v>0.3807747624159088</v>
+        <v>1.687758406384028</v>
       </c>
       <c r="E40">
-        <v>0.3315579725898865</v>
+        <v>1.469608310938955</v>
       </c>
       <c r="F40">
-        <v>0.1432894550446902</v>
+        <v>0.6351208277656538</v>
       </c>
       <c r="G40">
-        <v>1.306961252777756</v>
+        <v>5.793017444744647</v>
       </c>
       <c r="I40">
-        <v>35.84421245284901</v>
+        <v>158.8770497910064</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>23.11314078522484</v>
+        <v>102.4474348318073</v>
       </c>
       <c r="C41">
-        <v>0.001127731224160497</v>
+        <v>0.004998592453035716</v>
       </c>
       <c r="D41">
-        <v>0.0951936906039772</v>
+        <v>0.421939601596007</v>
       </c>
       <c r="F41">
-        <v>0.07164472752234508</v>
+        <v>0.3175604138828269</v>
       </c>
       <c r="G41">
-        <v>1.306961252777756</v>
+        <v>5.793017444744647</v>
       </c>
       <c r="I41">
-        <v>24.58806818735308</v>
+        <v>108.9849508844839</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>18.71063777851535</v>
+        <v>82.93363772098691</v>
       </c>
       <c r="C42">
-        <v>0.002255462448320995</v>
+        <v>0.009997184906071432</v>
       </c>
       <c r="D42">
-        <v>0.1903873812079544</v>
+        <v>0.8438792031920139</v>
       </c>
       <c r="E42">
-        <v>0.04144474657373581</v>
+        <v>0.1837010388673694</v>
       </c>
       <c r="F42">
-        <v>0.0955263033631268</v>
+        <v>0.4234138851771025</v>
       </c>
       <c r="G42">
-        <v>1.045569002222205</v>
+        <v>4.634413955795718</v>
       </c>
       <c r="H42">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I42">
-        <v>20.11843569952422</v>
+        <v>89.17360688437759</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>10.34588206576731</v>
+        <v>45.85742321042805</v>
       </c>
       <c r="C43">
-        <v>0.0006766387344962984</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D43">
-        <v>0.1903873812079544</v>
+        <v>0.8438792031920139</v>
       </c>
       <c r="F43">
-        <v>0.1034868286433873</v>
+        <v>0.4586983756085277</v>
       </c>
       <c r="G43">
-        <v>1.829745753888859</v>
+        <v>8.110224422642508</v>
       </c>
       <c r="I43">
-        <v>12.470178668242</v>
+        <v>55.27322436734293</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>10.12575691543183</v>
+        <v>44.88173335488703</v>
       </c>
       <c r="C44">
-        <v>0.0006766387344962984</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D44">
-        <v>0.1427905359059657</v>
+        <v>0.6329094023940106</v>
       </c>
       <c r="E44">
-        <v>0.1657789862949432</v>
+        <v>0.7348041554694774</v>
       </c>
       <c r="F44">
-        <v>0.06368420224208453</v>
+        <v>0.2822759234514017</v>
       </c>
       <c r="G44">
-        <v>0.5227845011111024</v>
+        <v>2.317206977897859</v>
       </c>
       <c r="I44">
-        <v>11.02147177972042</v>
+        <v>48.8519289695716</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>26.41501804025696</v>
+        <v>117.0827826649227</v>
       </c>
       <c r="C45">
-        <v>0.0002255462448320994</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D45">
-        <v>0.1903873812079544</v>
+        <v>0.8438792031920139</v>
       </c>
       <c r="E45">
-        <v>0.08288949314747161</v>
+        <v>0.3674020777347387</v>
       </c>
       <c r="F45">
-        <v>0.1034868286433873</v>
+        <v>0.4586983756085277</v>
       </c>
       <c r="G45">
-        <v>0.5227845011111024</v>
+        <v>2.317206977897859</v>
       </c>
       <c r="I45">
-        <v>27.31479179061171</v>
+        <v>121.0709690178465</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>76.1633020160742</v>
+        <v>337.5886900171936</v>
       </c>
       <c r="C46">
-        <v>0.001804369958656795</v>
+        <v>0.007997747924857147</v>
       </c>
       <c r="D46">
-        <v>0.7139526795298291</v>
+        <v>3.164547011970052</v>
       </c>
       <c r="E46">
-        <v>0.3730027191636223</v>
+        <v>1.653309349806325</v>
       </c>
       <c r="F46">
-        <v>0.3343420617709437</v>
+        <v>1.481948598119859</v>
       </c>
       <c r="G46">
-        <v>4.182276008888819</v>
+        <v>18.53765582318287</v>
       </c>
       <c r="I46">
-        <v>81.76867985538607</v>
+        <v>362.4341485481975</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>120.62858238384</v>
+        <v>534.6780408364804</v>
       </c>
       <c r="C47">
-        <v>0.003157647427649393</v>
+        <v>0.01399605886850001</v>
       </c>
       <c r="D47">
-        <v>0.7615495248318176</v>
+        <v>3.375516812768056</v>
       </c>
       <c r="E47">
-        <v>1.450566130080752</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F47">
-        <v>0.5970393960195424</v>
+        <v>2.64633678235689</v>
       </c>
       <c r="G47">
-        <v>8.625944268333191</v>
+        <v>38.23391513531467</v>
       </c>
       <c r="H47">
-        <v>0.08153756298382975</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I47">
-        <v>132.1483769135168</v>
+        <v>585.7387517247774</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>158.9303585422127</v>
+        <v>704.448075700618</v>
       </c>
       <c r="C48">
-        <v>0.002029916203488895</v>
+        <v>0.008997466415464291</v>
       </c>
       <c r="D48">
-        <v>1.189921132549715</v>
+        <v>5.274245019950086</v>
       </c>
       <c r="E48">
-        <v>1.57490036980196</v>
+        <v>6.980639476960037</v>
       </c>
       <c r="F48">
-        <v>0.6527630729813663</v>
+        <v>2.893328215376867</v>
       </c>
       <c r="G48">
-        <v>5.227845011111025</v>
+        <v>23.17206977897859</v>
       </c>
       <c r="H48">
-        <v>0.03261502519353189</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I48">
-        <v>167.6104330700538</v>
+        <v>742.9219195537514</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>160.6913597448965</v>
+        <v>712.2535945449461</v>
       </c>
       <c r="C49">
-        <v>0.002255462448320995</v>
+        <v>0.009997184906071432</v>
       </c>
       <c r="D49">
-        <v>0.9519369060397718</v>
+        <v>4.219396015960069</v>
       </c>
       <c r="E49">
-        <v>1.07756341091713</v>
+        <v>4.776227010551604</v>
       </c>
       <c r="F49">
-        <v>0.493552567376155</v>
+        <v>2.187638406748363</v>
       </c>
       <c r="G49">
-        <v>7.841767516666535</v>
+        <v>34.75810466846789</v>
       </c>
       <c r="H49">
-        <v>0.09784507558059569</v>
+        <v>0.4336916863572351</v>
       </c>
       <c r="I49">
-        <v>171.156280683925</v>
+        <v>758.6386495179373</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_VOC.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>628.3442669684184</v>
+        <v>139.6320593263152</v>
       </c>
       <c r="C2">
-        <v>0.02099408830275001</v>
+        <v>0.004665352956166669</v>
       </c>
       <c r="D2">
-        <v>7.594912828728125</v>
+        <v>1.687758406384028</v>
       </c>
       <c r="E2">
-        <v>5.143629088286346</v>
+        <v>1.143028686285855</v>
       </c>
       <c r="F2">
-        <v>3.881293947456773</v>
+        <v>0.862509766101505</v>
       </c>
       <c r="G2">
-        <v>46.34413955795718</v>
+        <v>10.29869767954604</v>
       </c>
       <c r="H2">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I2">
-        <v>691.473800374602</v>
+        <v>153.6608445276893</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>722.0104931003565</v>
+        <v>160.4467762445237</v>
       </c>
       <c r="C3">
-        <v>0.02499296226517858</v>
+        <v>0.005553991614484131</v>
       </c>
       <c r="D3">
-        <v>5.063275219152085</v>
+        <v>1.125172270922685</v>
       </c>
       <c r="E3">
-        <v>2.93921662187791</v>
+        <v>0.6531592493062023</v>
       </c>
       <c r="F3">
-        <v>4.869259679536677</v>
+        <v>1.082057706563706</v>
       </c>
       <c r="G3">
-        <v>71.8334163148336</v>
+        <v>15.96298140329636</v>
       </c>
       <c r="I3">
-        <v>806.7406538980218</v>
+        <v>179.2757008662272</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>588.3409828912364</v>
+        <v>130.742440642497</v>
       </c>
       <c r="C4">
-        <v>0.01799493283092858</v>
+        <v>0.003998873962428574</v>
       </c>
       <c r="D4">
-        <v>4.008426215162066</v>
+        <v>0.8907613811471259</v>
       </c>
       <c r="E4">
-        <v>4.959928049418976</v>
+        <v>1.102206233204217</v>
       </c>
       <c r="F4">
-        <v>3.810724966593922</v>
+        <v>0.846827770354205</v>
       </c>
       <c r="G4">
-        <v>47.5027430469061</v>
+        <v>10.55616512153469</v>
       </c>
       <c r="H4">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I4">
-        <v>648.7853639976008</v>
+        <v>144.1745253328001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>673.2260003233052</v>
+        <v>149.6057778496234</v>
       </c>
       <c r="C5">
-        <v>0.02399324377457144</v>
+        <v>0.005331831949904766</v>
       </c>
       <c r="D5">
-        <v>6.118124223142099</v>
+        <v>1.359583160698244</v>
       </c>
       <c r="E5">
-        <v>3.30661869961265</v>
+        <v>0.7348041554694774</v>
       </c>
       <c r="F5">
-        <v>3.704871495299647</v>
+        <v>0.8233047767332548</v>
       </c>
       <c r="G5">
-        <v>33.59950117951897</v>
+        <v>7.466555817670884</v>
       </c>
       <c r="H5">
-        <v>0.2891277909048233</v>
+        <v>0.06425062020107185</v>
       </c>
       <c r="I5">
-        <v>720.268236955558</v>
+        <v>160.0596082123462</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>640.0525452349103</v>
+        <v>142.2338989410913</v>
       </c>
       <c r="C6">
-        <v>0.03299071019003572</v>
+        <v>0.007331268931119053</v>
       </c>
       <c r="D6">
-        <v>5.063275219152085</v>
+        <v>1.125172270922685</v>
       </c>
       <c r="E6">
-        <v>3.12291766074528</v>
+        <v>0.69398170238784</v>
       </c>
       <c r="F6">
-        <v>3.669587004868221</v>
+        <v>0.8154637788596047</v>
       </c>
       <c r="G6">
-        <v>45.18553606900825</v>
+        <v>10.04123023755739</v>
       </c>
       <c r="H6">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I6">
-        <v>697.1991338466004</v>
+        <v>154.9331408548002</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>627.3685771128775</v>
+        <v>139.4152393584173</v>
       </c>
       <c r="C7">
-        <v>0.01899465132153572</v>
+        <v>0.004221033627007939</v>
       </c>
       <c r="D7">
-        <v>4.008426215162066</v>
+        <v>0.8907613811471259</v>
       </c>
       <c r="E7">
-        <v>4.225123893949497</v>
+        <v>0.9389164208776658</v>
       </c>
       <c r="F7">
-        <v>4.128285380476749</v>
+        <v>0.9173967512170554</v>
       </c>
       <c r="G7">
-        <v>41.70972560216151</v>
+        <v>9.268827911591437</v>
       </c>
       <c r="H7">
-        <v>0.6505375295358525</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I7">
-        <v>682.1096703854847</v>
+        <v>151.57992675233</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>604.9277104354343</v>
+        <v>134.4283800967631</v>
       </c>
       <c r="C8">
-        <v>0.02899183622760716</v>
+        <v>0.006442630272801592</v>
       </c>
       <c r="D8">
-        <v>4.219396015960069</v>
+        <v>0.9376435591022375</v>
       </c>
       <c r="E8">
-        <v>3.674020777347389</v>
+        <v>0.8164490616327532</v>
       </c>
       <c r="F8">
-        <v>3.916578437888199</v>
+        <v>0.8703507639751549</v>
       </c>
       <c r="G8">
-        <v>34.75810466846789</v>
+        <v>7.724023259659531</v>
       </c>
       <c r="H8">
-        <v>0.2168458431786175</v>
+        <v>0.0481879651508039</v>
       </c>
       <c r="I8">
-        <v>651.7416480145042</v>
+        <v>144.8314773365564</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>678.1044496010106</v>
+        <v>150.6898776891134</v>
       </c>
       <c r="C9">
-        <v>0.01599549584971429</v>
+        <v>0.003554554633269843</v>
       </c>
       <c r="D9">
-        <v>8.438792031920139</v>
+        <v>1.875287118204475</v>
       </c>
       <c r="E9">
-        <v>4.408824932816866</v>
+        <v>0.9797388739593037</v>
       </c>
       <c r="F9">
-        <v>3.846009457025348</v>
+        <v>0.854668768227855</v>
       </c>
       <c r="G9">
-        <v>25.48927675687646</v>
+        <v>5.664283723750327</v>
       </c>
       <c r="H9">
-        <v>0.2168458431786175</v>
+        <v>0.0481879651508039</v>
       </c>
       <c r="I9">
-        <v>720.5201941186778</v>
+        <v>160.1155986930394</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>825.4336177877052</v>
+        <v>183.4296928417122</v>
       </c>
       <c r="C10">
-        <v>0.02399324377457144</v>
+        <v>0.005331831949904766</v>
       </c>
       <c r="D10">
-        <v>5.274245019950086</v>
+        <v>1.172054448877797</v>
       </c>
       <c r="E10">
-        <v>4.041422855082126</v>
+        <v>0.8980939677960286</v>
       </c>
       <c r="F10">
-        <v>3.352026590985395</v>
+        <v>0.7448947979967544</v>
       </c>
       <c r="G10">
-        <v>18.53765582318287</v>
+        <v>4.119479071818418</v>
       </c>
       <c r="H10">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I10">
-        <v>856.7352432684064</v>
+        <v>190.3856096152014</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>805.9198206768845</v>
+        <v>179.0932934837521</v>
       </c>
       <c r="C11">
-        <v>0.006998029434250005</v>
+        <v>0.001555117652055557</v>
       </c>
       <c r="D11">
-        <v>5.696184621546091</v>
+        <v>1.265818804788021</v>
       </c>
       <c r="E11">
-        <v>4.776227010551604</v>
+        <v>1.061383780122579</v>
       </c>
       <c r="F11">
-        <v>1.76422452157126</v>
+        <v>0.3920498936825023</v>
       </c>
       <c r="G11">
-        <v>11.58603488948929</v>
+        <v>2.574674419886511</v>
       </c>
       <c r="H11">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I11">
-        <v>829.8940536449293</v>
+        <v>184.4209008099843</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>710.3022148338646</v>
+        <v>157.8449366297476</v>
       </c>
       <c r="C12">
-        <v>0.01199662188728572</v>
+        <v>0.002665915974952383</v>
       </c>
       <c r="D12">
-        <v>4.008426215162066</v>
+        <v>0.8907613811471259</v>
       </c>
       <c r="E12">
-        <v>6.429536360357932</v>
+        <v>1.428785857857318</v>
       </c>
       <c r="F12">
-        <v>1.270241655531308</v>
+        <v>0.2822759234514017</v>
       </c>
       <c r="G12">
-        <v>19.69625931213181</v>
+        <v>4.376946513807069</v>
       </c>
       <c r="H12">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I12">
-        <v>741.8632388943875</v>
+        <v>164.858497532086</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>558.0945973694649</v>
+        <v>124.0210216376588</v>
       </c>
       <c r="C13">
-        <v>0.00599831094364286</v>
+        <v>0.001332957987476192</v>
       </c>
       <c r="D13">
-        <v>3.164547011970052</v>
+        <v>0.7032326693266781</v>
       </c>
       <c r="E13">
-        <v>5.143629088286346</v>
+        <v>1.143028686285855</v>
       </c>
       <c r="F13">
-        <v>1.129103693805607</v>
+        <v>0.2509119319568016</v>
       </c>
       <c r="G13">
-        <v>10.42743140054038</v>
+        <v>2.317206977897859</v>
       </c>
       <c r="H13">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I13">
-        <v>578.0375888227371</v>
+        <v>128.4527975161638</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>438.084745137919</v>
+        <v>97.35216558620421</v>
       </c>
       <c r="C14">
-        <v>0.008997466415464291</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D14">
-        <v>2.953577211172047</v>
+        <v>0.6563504913715661</v>
       </c>
       <c r="E14">
-        <v>5.878433243755819</v>
+        <v>1.306318498612405</v>
       </c>
       <c r="F14">
-        <v>0.7409742990599294</v>
+        <v>0.164660955346651</v>
       </c>
       <c r="G14">
-        <v>6.951620933693577</v>
+        <v>1.544804651931909</v>
       </c>
       <c r="I14">
-        <v>454.6183482920158</v>
+        <v>101.0262996204479</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>287.8285073846017</v>
+        <v>63.96189052991149</v>
       </c>
       <c r="C15">
-        <v>0.003998873962428573</v>
+        <v>0.0008886386583174608</v>
       </c>
       <c r="D15">
-        <v>1.265818804788021</v>
+        <v>0.2812930677306712</v>
       </c>
       <c r="E15">
-        <v>3.30661869961265</v>
+        <v>0.7348041554694774</v>
       </c>
       <c r="F15">
-        <v>0.5292673564713782</v>
+        <v>0.1176149681047507</v>
       </c>
       <c r="G15">
-        <v>8.110224422642508</v>
+        <v>1.802272093920557</v>
       </c>
       <c r="H15">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I15">
-        <v>301.1167174898048</v>
+        <v>66.91482610884552</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>149.2805478977765</v>
+        <v>33.17345508839476</v>
       </c>
       <c r="C16">
-        <v>0.01099690339667858</v>
+        <v>0.002443756310373018</v>
       </c>
       <c r="D16">
-        <v>1.687758406384028</v>
+        <v>0.3750574236408948</v>
       </c>
       <c r="E16">
-        <v>1.469608310938955</v>
+        <v>0.3265796246531011</v>
       </c>
       <c r="F16">
-        <v>0.6351208277656538</v>
+        <v>0.1411379617257009</v>
       </c>
       <c r="G16">
-        <v>5.793017444744647</v>
+        <v>1.287337209943255</v>
       </c>
       <c r="I16">
-        <v>158.8770497910064</v>
+        <v>35.30601106466808</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>102.4474348318073</v>
+        <v>22.76609662929052</v>
       </c>
       <c r="C17">
-        <v>0.004998592453035716</v>
+        <v>0.001110798322896826</v>
       </c>
       <c r="D17">
-        <v>0.421939601596007</v>
+        <v>0.09376435591022371</v>
       </c>
       <c r="F17">
-        <v>0.3175604138828269</v>
+        <v>0.07056898086285043</v>
       </c>
       <c r="G17">
-        <v>5.793017444744647</v>
+        <v>1.287337209943255</v>
       </c>
       <c r="I17">
-        <v>108.9849508844839</v>
+        <v>24.21887797432975</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>82.93363772098691</v>
+        <v>18.42969727133042</v>
       </c>
       <c r="C18">
-        <v>0.009997184906071432</v>
+        <v>0.002221596645793652</v>
       </c>
       <c r="D18">
-        <v>0.8438792031920139</v>
+        <v>0.1875287118204474</v>
       </c>
       <c r="E18">
-        <v>0.1837010388673694</v>
+        <v>0.04082245308163764</v>
       </c>
       <c r="F18">
-        <v>0.4234138851771025</v>
+        <v>0.09409197448380056</v>
       </c>
       <c r="G18">
-        <v>4.634413955795718</v>
+        <v>1.029869767954604</v>
       </c>
       <c r="H18">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I18">
-        <v>89.17360688437759</v>
+        <v>19.81635708541724</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>45.85742321042805</v>
+        <v>10.19053849120623</v>
       </c>
       <c r="C19">
-        <v>0.00299915547182143</v>
+        <v>0.0006664789937380958</v>
       </c>
       <c r="D19">
-        <v>0.8438792031920139</v>
+        <v>0.1875287118204474</v>
       </c>
       <c r="F19">
-        <v>0.4586983756085277</v>
+        <v>0.1019329723574506</v>
       </c>
       <c r="G19">
-        <v>8.110224422642508</v>
+        <v>1.802272093920557</v>
       </c>
       <c r="I19">
-        <v>55.27322436734293</v>
+        <v>12.28293874829843</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>44.88173335488703</v>
+        <v>9.97371852330823</v>
       </c>
       <c r="C20">
-        <v>0.00299915547182143</v>
+        <v>0.0006664789937380958</v>
       </c>
       <c r="D20">
-        <v>0.6329094023940106</v>
+        <v>0.1406465338653356</v>
       </c>
       <c r="E20">
-        <v>0.7348041554694774</v>
+        <v>0.1632898123265506</v>
       </c>
       <c r="F20">
-        <v>0.2822759234514017</v>
+        <v>0.06272798298920039</v>
       </c>
       <c r="G20">
-        <v>2.317206977897859</v>
+        <v>0.5149348839773022</v>
       </c>
       <c r="I20">
-        <v>48.8519289695716</v>
+        <v>10.85598421546036</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>117.0827826649227</v>
+        <v>26.0183961477606</v>
       </c>
       <c r="C21">
-        <v>0.0009997184906071434</v>
+        <v>0.0002221596645793652</v>
       </c>
       <c r="D21">
-        <v>0.8438792031920139</v>
+        <v>0.1875287118204474</v>
       </c>
       <c r="E21">
-        <v>0.3674020777347387</v>
+        <v>0.08164490616327529</v>
       </c>
       <c r="F21">
-        <v>0.4586983756085277</v>
+        <v>0.1019329723574506</v>
       </c>
       <c r="G21">
-        <v>2.317206977897859</v>
+        <v>0.5149348839773022</v>
       </c>
       <c r="I21">
-        <v>121.0709690178465</v>
+        <v>26.90465978174366</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>337.5886900171936</v>
+        <v>75.01970889270974</v>
       </c>
       <c r="C22">
-        <v>0.007997747924857147</v>
+        <v>0.001777277316634922</v>
       </c>
       <c r="D22">
-        <v>3.164547011970052</v>
+        <v>0.7032326693266781</v>
       </c>
       <c r="E22">
-        <v>1.653309349806325</v>
+        <v>0.3674020777347387</v>
       </c>
       <c r="F22">
-        <v>1.481948598119859</v>
+        <v>0.3293219106933019</v>
       </c>
       <c r="G22">
-        <v>18.53765582318287</v>
+        <v>4.119479071818418</v>
       </c>
       <c r="I22">
-        <v>362.4341485481975</v>
+        <v>80.54092189959951</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>534.6780408364804</v>
+        <v>118.8173424081067</v>
       </c>
       <c r="C23">
-        <v>0.01399605886850001</v>
+        <v>0.003110235304111113</v>
       </c>
       <c r="D23">
-        <v>3.375516812768056</v>
+        <v>0.7501148472817897</v>
       </c>
       <c r="E23">
-        <v>6.429536360357932</v>
+        <v>1.428785857857318</v>
       </c>
       <c r="F23">
-        <v>2.64633678235689</v>
+        <v>0.5880748405237536</v>
       </c>
       <c r="G23">
-        <v>38.23391513531467</v>
+        <v>8.496425585625483</v>
       </c>
       <c r="H23">
-        <v>0.3614097386310293</v>
+        <v>0.08031327525133983</v>
       </c>
       <c r="I23">
-        <v>585.7387517247774</v>
+        <v>130.1641670499505</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>704.448075700618</v>
+        <v>156.5440168223596</v>
       </c>
       <c r="C24">
-        <v>0.008997466415464291</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D24">
-        <v>5.274245019950086</v>
+        <v>1.172054448877797</v>
       </c>
       <c r="E24">
-        <v>6.980639476960037</v>
+        <v>1.551253217102231</v>
       </c>
       <c r="F24">
-        <v>2.893328215376867</v>
+        <v>0.6429618256393038</v>
       </c>
       <c r="G24">
-        <v>23.17206977897859</v>
+        <v>5.149348839773022</v>
       </c>
       <c r="H24">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I24">
-        <v>742.9219195537514</v>
+        <v>165.0937599008337</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>712.2535945449461</v>
+        <v>158.2785765655436</v>
       </c>
       <c r="C25">
-        <v>0.009997184906071432</v>
+        <v>0.002221596645793652</v>
       </c>
       <c r="D25">
-        <v>4.219396015960069</v>
+        <v>0.9376435591022375</v>
       </c>
       <c r="E25">
-        <v>4.776227010551604</v>
+        <v>1.061383780122579</v>
       </c>
       <c r="F25">
-        <v>2.187638406748363</v>
+        <v>0.4861418681663029</v>
       </c>
       <c r="G25">
-        <v>34.75810466846789</v>
+        <v>7.724023259659531</v>
       </c>
       <c r="H25">
-        <v>0.4336916863572351</v>
+        <v>0.09637593030160779</v>
       </c>
       <c r="I25">
-        <v>758.6386495179373</v>
+        <v>168.5863665595417</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>628.3442669684184</v>
+        <v>139.6320593263152</v>
       </c>
       <c r="C26">
-        <v>0.02099408830275001</v>
+        <v>0.004665352956166669</v>
       </c>
       <c r="D26">
-        <v>7.594912828728125</v>
+        <v>1.687758406384028</v>
       </c>
       <c r="E26">
-        <v>5.143629088286346</v>
+        <v>1.143028686285855</v>
       </c>
       <c r="F26">
-        <v>3.881293947456773</v>
+        <v>0.862509766101505</v>
       </c>
       <c r="G26">
-        <v>46.34413955795718</v>
+        <v>10.29869767954604</v>
       </c>
       <c r="H26">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I26">
-        <v>691.473800374602</v>
+        <v>153.6608445276893</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>542.4835596808084</v>
+        <v>120.5519021512908</v>
       </c>
       <c r="C27">
-        <v>0.02099408830275001</v>
+        <v>0.004665352956166669</v>
       </c>
       <c r="D27">
-        <v>5.48521482074809</v>
+        <v>1.218936626832909</v>
       </c>
       <c r="E27">
-        <v>3.12291766074528</v>
+        <v>0.69398170238784</v>
       </c>
       <c r="F27">
-        <v>4.551699265653851</v>
+        <v>1.011488725700856</v>
       </c>
       <c r="G27">
-        <v>32.44089769057003</v>
+        <v>7.209088375682228</v>
       </c>
       <c r="H27">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I27">
-        <v>588.1775651545546</v>
+        <v>130.706125589901</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>615.6602988463853</v>
+        <v>136.8133997436412</v>
       </c>
       <c r="C28">
-        <v>0.02899183622760716</v>
+        <v>0.006442630272801592</v>
       </c>
       <c r="D28">
-        <v>5.48521482074809</v>
+        <v>1.218936626832909</v>
       </c>
       <c r="E28">
-        <v>4.225123893949497</v>
+        <v>0.9389164208776658</v>
       </c>
       <c r="F28">
-        <v>3.52844904314252</v>
+        <v>0.7840997873650046</v>
       </c>
       <c r="G28">
-        <v>46.34413955795718</v>
+        <v>10.29869767954604</v>
       </c>
       <c r="H28">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I28">
-        <v>675.4167818938625</v>
+        <v>150.0926181986361</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>561.0216669360881</v>
+        <v>124.6714815413528</v>
       </c>
       <c r="C29">
-        <v>0.02499296226517858</v>
+        <v>0.005553991614484131</v>
       </c>
       <c r="D29">
-        <v>5.907154422344093</v>
+        <v>1.312700982743132</v>
       </c>
       <c r="E29">
-        <v>3.12291766074528</v>
+        <v>0.69398170238784</v>
       </c>
       <c r="F29">
-        <v>2.893328215376867</v>
+        <v>0.6429618256393038</v>
       </c>
       <c r="G29">
-        <v>19.69625931213181</v>
+        <v>4.376946513807069</v>
       </c>
       <c r="H29">
-        <v>0.2168458431786175</v>
+        <v>0.0481879651508039</v>
       </c>
       <c r="I29">
-        <v>592.8831653521299</v>
+        <v>131.7518145226955</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>566.875806069334</v>
+        <v>125.9724013487409</v>
       </c>
       <c r="C30">
-        <v>0.01499577735910715</v>
+        <v>0.003332394968690478</v>
       </c>
       <c r="D30">
-        <v>5.274245019950086</v>
+        <v>1.172054448877797</v>
       </c>
       <c r="E30">
-        <v>2.755515583010541</v>
+        <v>0.6123367962245649</v>
       </c>
       <c r="F30">
-        <v>3.52844904314252</v>
+        <v>0.7840997873650046</v>
       </c>
       <c r="G30">
-        <v>38.23391513531467</v>
+        <v>8.496425585625483</v>
       </c>
       <c r="H30">
-        <v>0.2891277909048233</v>
+        <v>0.06425062020107185</v>
       </c>
       <c r="I30">
-        <v>616.9720544190155</v>
+        <v>137.1049009820035</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>568.827185780416</v>
+        <v>126.4060412845369</v>
       </c>
       <c r="C31">
-        <v>0.01999436981214286</v>
+        <v>0.004443193291587304</v>
       </c>
       <c r="D31">
-        <v>6.751033625536111</v>
+        <v>1.500229694563579</v>
       </c>
       <c r="E31">
-        <v>2.93921662187791</v>
+        <v>0.6531592493062023</v>
       </c>
       <c r="F31">
-        <v>4.128285380476749</v>
+        <v>0.9173967512170554</v>
       </c>
       <c r="G31">
-        <v>24.33067326792751</v>
+        <v>5.406816281761671</v>
       </c>
       <c r="H31">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I31">
-        <v>607.1409529414989</v>
+        <v>134.9202117647775</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>595.1708118800236</v>
+        <v>132.260180417783</v>
       </c>
       <c r="C32">
-        <v>0.0229935252839643</v>
+        <v>0.0051096722853254</v>
       </c>
       <c r="D32">
-        <v>5.274245019950086</v>
+        <v>1.172054448877797</v>
       </c>
       <c r="E32">
-        <v>3.857721816214759</v>
+        <v>0.8572715147143906</v>
       </c>
       <c r="F32">
-        <v>4.128285380476749</v>
+        <v>0.9173967512170554</v>
       </c>
       <c r="G32">
-        <v>26.6478802458254</v>
+        <v>5.921751165738972</v>
       </c>
       <c r="H32">
-        <v>0.2168458431786175</v>
+        <v>0.0481879651508039</v>
       </c>
       <c r="I32">
-        <v>635.3187837109531</v>
+        <v>141.1819519357674</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>678.1044496010106</v>
+        <v>150.6898776891134</v>
       </c>
       <c r="C33">
-        <v>0.01599549584971429</v>
+        <v>0.003554554633269843</v>
       </c>
       <c r="D33">
-        <v>8.438792031920139</v>
+        <v>1.875287118204475</v>
       </c>
       <c r="E33">
-        <v>4.408824932816866</v>
+        <v>0.9797388739593037</v>
       </c>
       <c r="F33">
-        <v>3.846009457025348</v>
+        <v>0.854668768227855</v>
       </c>
       <c r="G33">
-        <v>25.48927675687646</v>
+        <v>5.664283723750327</v>
       </c>
       <c r="H33">
-        <v>0.2168458431786175</v>
+        <v>0.0481879651508039</v>
       </c>
       <c r="I33">
-        <v>720.5201941186778</v>
+        <v>160.1155986930394</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>825.4336177877052</v>
+        <v>183.4296928417122</v>
       </c>
       <c r="C34">
-        <v>0.02399324377457144</v>
+        <v>0.005331831949904766</v>
       </c>
       <c r="D34">
-        <v>5.274245019950086</v>
+        <v>1.172054448877797</v>
       </c>
       <c r="E34">
-        <v>4.041422855082126</v>
+        <v>0.8980939677960286</v>
       </c>
       <c r="F34">
-        <v>3.352026590985395</v>
+        <v>0.7448947979967544</v>
       </c>
       <c r="G34">
-        <v>18.53765582318287</v>
+        <v>4.119479071818418</v>
       </c>
       <c r="H34">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I34">
-        <v>856.7352432684064</v>
+        <v>190.3856096152014</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>805.9198206768845</v>
+        <v>179.0932934837521</v>
       </c>
       <c r="C35">
-        <v>0.006998029434250005</v>
+        <v>0.001555117652055557</v>
       </c>
       <c r="D35">
-        <v>5.696184621546091</v>
+        <v>1.265818804788021</v>
       </c>
       <c r="E35">
-        <v>4.776227010551604</v>
+        <v>1.061383780122579</v>
       </c>
       <c r="F35">
-        <v>1.76422452157126</v>
+        <v>0.3920498936825023</v>
       </c>
       <c r="G35">
-        <v>11.58603488948929</v>
+        <v>2.574674419886511</v>
       </c>
       <c r="H35">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I35">
-        <v>829.8940536449293</v>
+        <v>184.4209008099843</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>710.3022148338646</v>
+        <v>157.8449366297476</v>
       </c>
       <c r="C36">
-        <v>0.01199662188728572</v>
+        <v>0.002665915974952383</v>
       </c>
       <c r="D36">
-        <v>4.008426215162066</v>
+        <v>0.8907613811471259</v>
       </c>
       <c r="E36">
-        <v>6.429536360357932</v>
+        <v>1.428785857857318</v>
       </c>
       <c r="F36">
-        <v>1.270241655531308</v>
+        <v>0.2822759234514017</v>
       </c>
       <c r="G36">
-        <v>19.69625931213181</v>
+        <v>4.376946513807069</v>
       </c>
       <c r="H36">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I36">
-        <v>741.8632388943875</v>
+        <v>164.858497532086</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>558.0945973694649</v>
+        <v>124.0210216376588</v>
       </c>
       <c r="C37">
-        <v>0.00599831094364286</v>
+        <v>0.001332957987476192</v>
       </c>
       <c r="D37">
-        <v>3.164547011970052</v>
+        <v>0.7032326693266781</v>
       </c>
       <c r="E37">
-        <v>5.143629088286346</v>
+        <v>1.143028686285855</v>
       </c>
       <c r="F37">
-        <v>1.129103693805607</v>
+        <v>0.2509119319568016</v>
       </c>
       <c r="G37">
-        <v>10.42743140054038</v>
+        <v>2.317206977897859</v>
       </c>
       <c r="H37">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I37">
-        <v>578.0375888227371</v>
+        <v>128.4527975161638</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>438.084745137919</v>
+        <v>97.35216558620421</v>
       </c>
       <c r="C38">
-        <v>0.008997466415464291</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D38">
-        <v>2.953577211172047</v>
+        <v>0.6563504913715661</v>
       </c>
       <c r="E38">
-        <v>5.878433243755819</v>
+        <v>1.306318498612405</v>
       </c>
       <c r="F38">
-        <v>0.7409742990599294</v>
+        <v>0.164660955346651</v>
       </c>
       <c r="G38">
-        <v>6.951620933693577</v>
+        <v>1.544804651931909</v>
       </c>
       <c r="I38">
-        <v>454.6183482920158</v>
+        <v>101.0262996204479</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>287.8285073846017</v>
+        <v>63.96189052991149</v>
       </c>
       <c r="C39">
-        <v>0.003998873962428573</v>
+        <v>0.0008886386583174608</v>
       </c>
       <c r="D39">
-        <v>1.265818804788021</v>
+        <v>0.2812930677306712</v>
       </c>
       <c r="E39">
-        <v>3.30661869961265</v>
+        <v>0.7348041554694774</v>
       </c>
       <c r="F39">
-        <v>0.5292673564713782</v>
+        <v>0.1176149681047507</v>
       </c>
       <c r="G39">
-        <v>8.110224422642508</v>
+        <v>1.802272093920557</v>
       </c>
       <c r="H39">
-        <v>0.07228194772620583</v>
+        <v>0.01606265505026796</v>
       </c>
       <c r="I39">
-        <v>301.1167174898048</v>
+        <v>66.91482610884552</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>149.2805478977765</v>
+        <v>33.17345508839476</v>
       </c>
       <c r="C40">
-        <v>0.01099690339667858</v>
+        <v>0.002443756310373018</v>
       </c>
       <c r="D40">
-        <v>1.687758406384028</v>
+        <v>0.3750574236408948</v>
       </c>
       <c r="E40">
-        <v>1.469608310938955</v>
+        <v>0.3265796246531011</v>
       </c>
       <c r="F40">
-        <v>0.6351208277656538</v>
+        <v>0.1411379617257009</v>
       </c>
       <c r="G40">
-        <v>5.793017444744647</v>
+        <v>1.287337209943255</v>
       </c>
       <c r="I40">
-        <v>158.8770497910064</v>
+        <v>35.30601106466808</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>102.4474348318073</v>
+        <v>22.76609662929052</v>
       </c>
       <c r="C41">
-        <v>0.004998592453035716</v>
+        <v>0.001110798322896826</v>
       </c>
       <c r="D41">
-        <v>0.421939601596007</v>
+        <v>0.09376435591022371</v>
       </c>
       <c r="F41">
-        <v>0.3175604138828269</v>
+        <v>0.07056898086285043</v>
       </c>
       <c r="G41">
-        <v>5.793017444744647</v>
+        <v>1.287337209943255</v>
       </c>
       <c r="I41">
-        <v>108.9849508844839</v>
+        <v>24.21887797432975</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>82.93363772098691</v>
+        <v>18.42969727133042</v>
       </c>
       <c r="C42">
-        <v>0.009997184906071432</v>
+        <v>0.002221596645793652</v>
       </c>
       <c r="D42">
-        <v>0.8438792031920139</v>
+        <v>0.1875287118204474</v>
       </c>
       <c r="E42">
-        <v>0.1837010388673694</v>
+        <v>0.04082245308163764</v>
       </c>
       <c r="F42">
-        <v>0.4234138851771025</v>
+        <v>0.09409197448380056</v>
       </c>
       <c r="G42">
-        <v>4.634413955795718</v>
+        <v>1.029869767954604</v>
       </c>
       <c r="H42">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I42">
-        <v>89.17360688437759</v>
+        <v>19.81635708541724</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>45.85742321042805</v>
+        <v>10.19053849120623</v>
       </c>
       <c r="C43">
-        <v>0.00299915547182143</v>
+        <v>0.0006664789937380958</v>
       </c>
       <c r="D43">
-        <v>0.8438792031920139</v>
+        <v>0.1875287118204474</v>
       </c>
       <c r="F43">
-        <v>0.4586983756085277</v>
+        <v>0.1019329723574506</v>
       </c>
       <c r="G43">
-        <v>8.110224422642508</v>
+        <v>1.802272093920557</v>
       </c>
       <c r="I43">
-        <v>55.27322436734293</v>
+        <v>12.28293874829843</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>44.88173335488703</v>
+        <v>9.97371852330823</v>
       </c>
       <c r="C44">
-        <v>0.00299915547182143</v>
+        <v>0.0006664789937380958</v>
       </c>
       <c r="D44">
-        <v>0.6329094023940106</v>
+        <v>0.1406465338653356</v>
       </c>
       <c r="E44">
-        <v>0.7348041554694774</v>
+        <v>0.1632898123265506</v>
       </c>
       <c r="F44">
-        <v>0.2822759234514017</v>
+        <v>0.06272798298920039</v>
       </c>
       <c r="G44">
-        <v>2.317206977897859</v>
+        <v>0.5149348839773022</v>
       </c>
       <c r="I44">
-        <v>48.8519289695716</v>
+        <v>10.85598421546036</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>117.0827826649227</v>
+        <v>26.0183961477606</v>
       </c>
       <c r="C45">
-        <v>0.0009997184906071434</v>
+        <v>0.0002221596645793652</v>
       </c>
       <c r="D45">
-        <v>0.8438792031920139</v>
+        <v>0.1875287118204474</v>
       </c>
       <c r="E45">
-        <v>0.3674020777347387</v>
+        <v>0.08164490616327529</v>
       </c>
       <c r="F45">
-        <v>0.4586983756085277</v>
+        <v>0.1019329723574506</v>
       </c>
       <c r="G45">
-        <v>2.317206977897859</v>
+        <v>0.5149348839773022</v>
       </c>
       <c r="I45">
-        <v>121.0709690178465</v>
+        <v>26.90465978174366</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>337.5886900171936</v>
+        <v>75.01970889270974</v>
       </c>
       <c r="C46">
-        <v>0.007997747924857147</v>
+        <v>0.001777277316634922</v>
       </c>
       <c r="D46">
-        <v>3.164547011970052</v>
+        <v>0.7032326693266781</v>
       </c>
       <c r="E46">
-        <v>1.653309349806325</v>
+        <v>0.3674020777347387</v>
       </c>
       <c r="F46">
-        <v>1.481948598119859</v>
+        <v>0.3293219106933019</v>
       </c>
       <c r="G46">
-        <v>18.53765582318287</v>
+        <v>4.119479071818418</v>
       </c>
       <c r="I46">
-        <v>362.4341485481975</v>
+        <v>80.54092189959951</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>534.6780408364804</v>
+        <v>118.8173424081067</v>
       </c>
       <c r="C47">
-        <v>0.01399605886850001</v>
+        <v>0.003110235304111113</v>
       </c>
       <c r="D47">
-        <v>3.375516812768056</v>
+        <v>0.7501148472817897</v>
       </c>
       <c r="E47">
-        <v>6.429536360357932</v>
+        <v>1.428785857857318</v>
       </c>
       <c r="F47">
-        <v>2.64633678235689</v>
+        <v>0.5880748405237536</v>
       </c>
       <c r="G47">
-        <v>38.23391513531467</v>
+        <v>8.496425585625483</v>
       </c>
       <c r="H47">
-        <v>0.3614097386310293</v>
+        <v>0.08031327525133983</v>
       </c>
       <c r="I47">
-        <v>585.7387517247774</v>
+        <v>130.1641670499505</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>704.448075700618</v>
+        <v>156.5440168223596</v>
       </c>
       <c r="C48">
-        <v>0.008997466415464291</v>
+        <v>0.001999436981214287</v>
       </c>
       <c r="D48">
-        <v>5.274245019950086</v>
+        <v>1.172054448877797</v>
       </c>
       <c r="E48">
-        <v>6.980639476960037</v>
+        <v>1.551253217102231</v>
       </c>
       <c r="F48">
-        <v>2.893328215376867</v>
+        <v>0.6429618256393038</v>
       </c>
       <c r="G48">
-        <v>23.17206977897859</v>
+        <v>5.149348839773022</v>
       </c>
       <c r="H48">
-        <v>0.1445638954524117</v>
+        <v>0.03212531010053592</v>
       </c>
       <c r="I48">
-        <v>742.9219195537514</v>
+        <v>165.0937599008337</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>712.2535945449461</v>
+        <v>158.2785765655436</v>
       </c>
       <c r="C49">
-        <v>0.009997184906071432</v>
+        <v>0.002221596645793652</v>
       </c>
       <c r="D49">
-        <v>4.219396015960069</v>
+        <v>0.9376435591022375</v>
       </c>
       <c r="E49">
-        <v>4.776227010551604</v>
+        <v>1.061383780122579</v>
       </c>
       <c r="F49">
-        <v>2.187638406748363</v>
+        <v>0.4861418681663029</v>
       </c>
       <c r="G49">
-        <v>34.75810466846789</v>
+        <v>7.724023259659531</v>
       </c>
       <c r="H49">
-        <v>0.4336916863572351</v>
+        <v>0.09637593030160779</v>
       </c>
       <c r="I49">
-        <v>758.6386495179373</v>
+        <v>168.5863665595417</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_VOC.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>139.6320593263152</v>
+        <v>628.3442669684184</v>
       </c>
       <c r="C2">
-        <v>0.004665352956166669</v>
+        <v>0.02099408830275001</v>
       </c>
       <c r="D2">
-        <v>1.687758406384028</v>
+        <v>7.594912828728125</v>
       </c>
       <c r="E2">
-        <v>1.143028686285855</v>
+        <v>5.143629088286346</v>
       </c>
       <c r="F2">
-        <v>0.862509766101505</v>
+        <v>3.881293947456773</v>
       </c>
       <c r="G2">
-        <v>10.29869767954604</v>
+        <v>46.34413955795718</v>
       </c>
       <c r="H2">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I2">
-        <v>153.6608445276893</v>
+        <v>691.473800374602</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>160.4467762445237</v>
+        <v>722.0104931003565</v>
       </c>
       <c r="C3">
-        <v>0.005553991614484131</v>
+        <v>0.02499296226517858</v>
       </c>
       <c r="D3">
-        <v>1.125172270922685</v>
+        <v>5.063275219152085</v>
       </c>
       <c r="E3">
-        <v>0.6531592493062023</v>
+        <v>2.93921662187791</v>
       </c>
       <c r="F3">
-        <v>1.082057706563706</v>
+        <v>4.869259679536677</v>
       </c>
       <c r="G3">
-        <v>15.96298140329636</v>
+        <v>71.8334163148336</v>
       </c>
       <c r="I3">
-        <v>179.2757008662272</v>
+        <v>806.7406538980218</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>130.742440642497</v>
+        <v>588.3409828912364</v>
       </c>
       <c r="C4">
-        <v>0.003998873962428574</v>
+        <v>0.01799493283092858</v>
       </c>
       <c r="D4">
-        <v>0.8907613811471259</v>
+        <v>4.008426215162066</v>
       </c>
       <c r="E4">
-        <v>1.102206233204217</v>
+        <v>4.959928049418976</v>
       </c>
       <c r="F4">
-        <v>0.846827770354205</v>
+        <v>3.810724966593922</v>
       </c>
       <c r="G4">
-        <v>10.55616512153469</v>
+        <v>47.5027430469061</v>
       </c>
       <c r="H4">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I4">
-        <v>144.1745253328001</v>
+        <v>648.7853639976008</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>149.6057778496234</v>
+        <v>673.2260003233052</v>
       </c>
       <c r="C5">
-        <v>0.005331831949904766</v>
+        <v>0.02399324377457144</v>
       </c>
       <c r="D5">
-        <v>1.359583160698244</v>
+        <v>6.118124223142099</v>
       </c>
       <c r="E5">
-        <v>0.7348041554694774</v>
+        <v>3.30661869961265</v>
       </c>
       <c r="F5">
-        <v>0.8233047767332548</v>
+        <v>3.704871495299647</v>
       </c>
       <c r="G5">
-        <v>7.466555817670884</v>
+        <v>33.59950117951897</v>
       </c>
       <c r="H5">
-        <v>0.06425062020107185</v>
+        <v>0.2891277909048233</v>
       </c>
       <c r="I5">
-        <v>160.0596082123462</v>
+        <v>720.268236955558</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>142.2338989410913</v>
+        <v>640.0525452349103</v>
       </c>
       <c r="C6">
-        <v>0.007331268931119053</v>
+        <v>0.03299071019003572</v>
       </c>
       <c r="D6">
-        <v>1.125172270922685</v>
+        <v>5.063275219152085</v>
       </c>
       <c r="E6">
-        <v>0.69398170238784</v>
+        <v>3.12291766074528</v>
       </c>
       <c r="F6">
-        <v>0.8154637788596047</v>
+        <v>3.669587004868221</v>
       </c>
       <c r="G6">
-        <v>10.04123023755739</v>
+        <v>45.18553606900825</v>
       </c>
       <c r="H6">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I6">
-        <v>154.9331408548002</v>
+        <v>697.1991338466004</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>139.4152393584173</v>
+        <v>627.3685771128775</v>
       </c>
       <c r="C7">
-        <v>0.004221033627007939</v>
+        <v>0.01899465132153572</v>
       </c>
       <c r="D7">
-        <v>0.8907613811471259</v>
+        <v>4.008426215162066</v>
       </c>
       <c r="E7">
-        <v>0.9389164208776658</v>
+        <v>4.225123893949497</v>
       </c>
       <c r="F7">
-        <v>0.9173967512170554</v>
+        <v>4.128285380476749</v>
       </c>
       <c r="G7">
-        <v>9.268827911591437</v>
+        <v>41.70972560216151</v>
       </c>
       <c r="H7">
-        <v>0.1445638954524117</v>
+        <v>0.6505375295358525</v>
       </c>
       <c r="I7">
-        <v>151.57992675233</v>
+        <v>682.1096703854847</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>134.4283800967631</v>
+        <v>604.9277104354343</v>
       </c>
       <c r="C8">
-        <v>0.006442630272801592</v>
+        <v>0.02899183622760716</v>
       </c>
       <c r="D8">
-        <v>0.9376435591022375</v>
+        <v>4.219396015960069</v>
       </c>
       <c r="E8">
-        <v>0.8164490616327532</v>
+        <v>3.674020777347389</v>
       </c>
       <c r="F8">
-        <v>0.8703507639751549</v>
+        <v>3.916578437888199</v>
       </c>
       <c r="G8">
-        <v>7.724023259659531</v>
+        <v>34.75810466846789</v>
       </c>
       <c r="H8">
-        <v>0.0481879651508039</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I8">
-        <v>144.8314773365564</v>
+        <v>651.7416480145042</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>150.6898776891134</v>
+        <v>678.1044496010106</v>
       </c>
       <c r="C9">
-        <v>0.003554554633269843</v>
+        <v>0.01599549584971429</v>
       </c>
       <c r="D9">
-        <v>1.875287118204475</v>
+        <v>8.438792031920139</v>
       </c>
       <c r="E9">
-        <v>0.9797388739593037</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F9">
-        <v>0.854668768227855</v>
+        <v>3.846009457025348</v>
       </c>
       <c r="G9">
-        <v>5.664283723750327</v>
+        <v>25.48927675687646</v>
       </c>
       <c r="H9">
-        <v>0.0481879651508039</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I9">
-        <v>160.1155986930394</v>
+        <v>720.5201941186778</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>183.4296928417122</v>
+        <v>825.4336177877052</v>
       </c>
       <c r="C10">
-        <v>0.005331831949904766</v>
+        <v>0.02399324377457144</v>
       </c>
       <c r="D10">
-        <v>1.172054448877797</v>
+        <v>5.274245019950086</v>
       </c>
       <c r="E10">
-        <v>0.8980939677960286</v>
+        <v>4.041422855082126</v>
       </c>
       <c r="F10">
-        <v>0.7448947979967544</v>
+        <v>3.352026590985395</v>
       </c>
       <c r="G10">
-        <v>4.119479071818418</v>
+        <v>18.53765582318287</v>
       </c>
       <c r="H10">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I10">
-        <v>190.3856096152014</v>
+        <v>856.7352432684064</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>179.0932934837521</v>
+        <v>805.9198206768845</v>
       </c>
       <c r="C11">
-        <v>0.001555117652055557</v>
+        <v>0.006998029434250005</v>
       </c>
       <c r="D11">
-        <v>1.265818804788021</v>
+        <v>5.696184621546091</v>
       </c>
       <c r="E11">
-        <v>1.061383780122579</v>
+        <v>4.776227010551604</v>
       </c>
       <c r="F11">
-        <v>0.3920498936825023</v>
+        <v>1.76422452157126</v>
       </c>
       <c r="G11">
-        <v>2.574674419886511</v>
+        <v>11.58603488948929</v>
       </c>
       <c r="H11">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I11">
-        <v>184.4209008099843</v>
+        <v>829.8940536449293</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>157.8449366297476</v>
+        <v>710.3022148338646</v>
       </c>
       <c r="C12">
-        <v>0.002665915974952383</v>
+        <v>0.01199662188728572</v>
       </c>
       <c r="D12">
-        <v>0.8907613811471259</v>
+        <v>4.008426215162066</v>
       </c>
       <c r="E12">
-        <v>1.428785857857318</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F12">
-        <v>0.2822759234514017</v>
+        <v>1.270241655531308</v>
       </c>
       <c r="G12">
-        <v>4.376946513807069</v>
+        <v>19.69625931213181</v>
       </c>
       <c r="H12">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I12">
-        <v>164.858497532086</v>
+        <v>741.8632388943875</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>124.0210216376588</v>
+        <v>558.0945973694649</v>
       </c>
       <c r="C13">
-        <v>0.001332957987476192</v>
+        <v>0.00599831094364286</v>
       </c>
       <c r="D13">
-        <v>0.7032326693266781</v>
+        <v>3.164547011970052</v>
       </c>
       <c r="E13">
-        <v>1.143028686285855</v>
+        <v>5.143629088286346</v>
       </c>
       <c r="F13">
-        <v>0.2509119319568016</v>
+        <v>1.129103693805607</v>
       </c>
       <c r="G13">
-        <v>2.317206977897859</v>
+        <v>10.42743140054038</v>
       </c>
       <c r="H13">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I13">
-        <v>128.4527975161638</v>
+        <v>578.0375888227371</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>97.35216558620421</v>
+        <v>438.084745137919</v>
       </c>
       <c r="C14">
-        <v>0.001999436981214287</v>
+        <v>0.008997466415464291</v>
       </c>
       <c r="D14">
-        <v>0.6563504913715661</v>
+        <v>2.953577211172047</v>
       </c>
       <c r="E14">
-        <v>1.306318498612405</v>
+        <v>5.878433243755819</v>
       </c>
       <c r="F14">
-        <v>0.164660955346651</v>
+        <v>0.7409742990599294</v>
       </c>
       <c r="G14">
-        <v>1.544804651931909</v>
+        <v>6.951620933693577</v>
       </c>
       <c r="I14">
-        <v>101.0262996204479</v>
+        <v>454.6183482920158</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>63.96189052991149</v>
+        <v>287.8285073846017</v>
       </c>
       <c r="C15">
-        <v>0.0008886386583174608</v>
+        <v>0.003998873962428573</v>
       </c>
       <c r="D15">
-        <v>0.2812930677306712</v>
+        <v>1.265818804788021</v>
       </c>
       <c r="E15">
-        <v>0.7348041554694774</v>
+        <v>3.30661869961265</v>
       </c>
       <c r="F15">
-        <v>0.1176149681047507</v>
+        <v>0.5292673564713782</v>
       </c>
       <c r="G15">
-        <v>1.802272093920557</v>
+        <v>8.110224422642508</v>
       </c>
       <c r="H15">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I15">
-        <v>66.91482610884552</v>
+        <v>301.1167174898048</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>33.17345508839476</v>
+        <v>149.2805478977765</v>
       </c>
       <c r="C16">
-        <v>0.002443756310373018</v>
+        <v>0.01099690339667858</v>
       </c>
       <c r="D16">
-        <v>0.3750574236408948</v>
+        <v>1.687758406384028</v>
       </c>
       <c r="E16">
-        <v>0.3265796246531011</v>
+        <v>1.469608310938955</v>
       </c>
       <c r="F16">
-        <v>0.1411379617257009</v>
+        <v>0.6351208277656538</v>
       </c>
       <c r="G16">
-        <v>1.287337209943255</v>
+        <v>5.793017444744647</v>
       </c>
       <c r="I16">
-        <v>35.30601106466808</v>
+        <v>158.8770497910064</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>22.76609662929052</v>
+        <v>102.4474348318073</v>
       </c>
       <c r="C17">
-        <v>0.001110798322896826</v>
+        <v>0.004998592453035716</v>
       </c>
       <c r="D17">
-        <v>0.09376435591022371</v>
+        <v>0.421939601596007</v>
       </c>
       <c r="F17">
-        <v>0.07056898086285043</v>
+        <v>0.3175604138828269</v>
       </c>
       <c r="G17">
-        <v>1.287337209943255</v>
+        <v>5.793017444744647</v>
       </c>
       <c r="I17">
-        <v>24.21887797432975</v>
+        <v>108.9849508844839</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>18.42969727133042</v>
+        <v>82.93363772098691</v>
       </c>
       <c r="C18">
-        <v>0.002221596645793652</v>
+        <v>0.009997184906071432</v>
       </c>
       <c r="D18">
-        <v>0.1875287118204474</v>
+        <v>0.8438792031920139</v>
       </c>
       <c r="E18">
-        <v>0.04082245308163764</v>
+        <v>0.1837010388673694</v>
       </c>
       <c r="F18">
-        <v>0.09409197448380056</v>
+        <v>0.4234138851771025</v>
       </c>
       <c r="G18">
-        <v>1.029869767954604</v>
+        <v>4.634413955795718</v>
       </c>
       <c r="H18">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I18">
-        <v>19.81635708541724</v>
+        <v>89.17360688437759</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>10.19053849120623</v>
+        <v>45.85742321042805</v>
       </c>
       <c r="C19">
-        <v>0.0006664789937380958</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D19">
-        <v>0.1875287118204474</v>
+        <v>0.8438792031920139</v>
       </c>
       <c r="F19">
-        <v>0.1019329723574506</v>
+        <v>0.4586983756085277</v>
       </c>
       <c r="G19">
-        <v>1.802272093920557</v>
+        <v>8.110224422642508</v>
       </c>
       <c r="I19">
-        <v>12.28293874829843</v>
+        <v>55.27322436734293</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>9.97371852330823</v>
+        <v>44.88173335488703</v>
       </c>
       <c r="C20">
-        <v>0.0006664789937380958</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D20">
-        <v>0.1406465338653356</v>
+        <v>0.6329094023940106</v>
       </c>
       <c r="E20">
-        <v>0.1632898123265506</v>
+        <v>0.7348041554694774</v>
       </c>
       <c r="F20">
-        <v>0.06272798298920039</v>
+        <v>0.2822759234514017</v>
       </c>
       <c r="G20">
-        <v>0.5149348839773022</v>
+        <v>2.317206977897859</v>
       </c>
       <c r="I20">
-        <v>10.85598421546036</v>
+        <v>48.8519289695716</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>26.0183961477606</v>
+        <v>117.0827826649227</v>
       </c>
       <c r="C21">
-        <v>0.0002221596645793652</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D21">
-        <v>0.1875287118204474</v>
+        <v>0.8438792031920139</v>
       </c>
       <c r="E21">
-        <v>0.08164490616327529</v>
+        <v>0.3674020777347387</v>
       </c>
       <c r="F21">
-        <v>0.1019329723574506</v>
+        <v>0.4586983756085277</v>
       </c>
       <c r="G21">
-        <v>0.5149348839773022</v>
+        <v>2.317206977897859</v>
       </c>
       <c r="I21">
-        <v>26.90465978174366</v>
+        <v>121.0709690178465</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>75.01970889270974</v>
+        <v>337.5886900171936</v>
       </c>
       <c r="C22">
-        <v>0.001777277316634922</v>
+        <v>0.007997747924857147</v>
       </c>
       <c r="D22">
-        <v>0.7032326693266781</v>
+        <v>3.164547011970052</v>
       </c>
       <c r="E22">
-        <v>0.3674020777347387</v>
+        <v>1.653309349806325</v>
       </c>
       <c r="F22">
-        <v>0.3293219106933019</v>
+        <v>1.481948598119859</v>
       </c>
       <c r="G22">
-        <v>4.119479071818418</v>
+        <v>18.53765582318287</v>
       </c>
       <c r="I22">
-        <v>80.54092189959951</v>
+        <v>362.4341485481975</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>118.8173424081067</v>
+        <v>534.6780408364804</v>
       </c>
       <c r="C23">
-        <v>0.003110235304111113</v>
+        <v>0.01399605886850001</v>
       </c>
       <c r="D23">
-        <v>0.7501148472817897</v>
+        <v>3.375516812768056</v>
       </c>
       <c r="E23">
-        <v>1.428785857857318</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F23">
-        <v>0.5880748405237536</v>
+        <v>2.64633678235689</v>
       </c>
       <c r="G23">
-        <v>8.496425585625483</v>
+        <v>38.23391513531467</v>
       </c>
       <c r="H23">
-        <v>0.08031327525133983</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I23">
-        <v>130.1641670499505</v>
+        <v>585.7387517247774</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>156.5440168223596</v>
+        <v>704.448075700618</v>
       </c>
       <c r="C24">
-        <v>0.001999436981214287</v>
+        <v>0.008997466415464291</v>
       </c>
       <c r="D24">
-        <v>1.172054448877797</v>
+        <v>5.274245019950086</v>
       </c>
       <c r="E24">
-        <v>1.551253217102231</v>
+        <v>6.980639476960037</v>
       </c>
       <c r="F24">
-        <v>0.6429618256393038</v>
+        <v>2.893328215376867</v>
       </c>
       <c r="G24">
-        <v>5.149348839773022</v>
+        <v>23.17206977897859</v>
       </c>
       <c r="H24">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I24">
-        <v>165.0937599008337</v>
+        <v>742.9219195537514</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>158.2785765655436</v>
+        <v>712.2535945449461</v>
       </c>
       <c r="C25">
-        <v>0.002221596645793652</v>
+        <v>0.009997184906071432</v>
       </c>
       <c r="D25">
-        <v>0.9376435591022375</v>
+        <v>4.219396015960069</v>
       </c>
       <c r="E25">
-        <v>1.061383780122579</v>
+        <v>4.776227010551604</v>
       </c>
       <c r="F25">
-        <v>0.4861418681663029</v>
+        <v>2.187638406748363</v>
       </c>
       <c r="G25">
-        <v>7.724023259659531</v>
+        <v>34.75810466846789</v>
       </c>
       <c r="H25">
-        <v>0.09637593030160779</v>
+        <v>0.4336916863572351</v>
       </c>
       <c r="I25">
-        <v>168.5863665595417</v>
+        <v>758.6386495179373</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>139.6320593263152</v>
+        <v>628.3442669684184</v>
       </c>
       <c r="C26">
-        <v>0.004665352956166669</v>
+        <v>0.02099408830275001</v>
       </c>
       <c r="D26">
-        <v>1.687758406384028</v>
+        <v>7.594912828728125</v>
       </c>
       <c r="E26">
-        <v>1.143028686285855</v>
+        <v>5.143629088286346</v>
       </c>
       <c r="F26">
-        <v>0.862509766101505</v>
+        <v>3.881293947456773</v>
       </c>
       <c r="G26">
-        <v>10.29869767954604</v>
+        <v>46.34413955795718</v>
       </c>
       <c r="H26">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I26">
-        <v>153.6608445276893</v>
+        <v>691.473800374602</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>120.5519021512908</v>
+        <v>542.4835596808084</v>
       </c>
       <c r="C27">
-        <v>0.004665352956166669</v>
+        <v>0.02099408830275001</v>
       </c>
       <c r="D27">
-        <v>1.218936626832909</v>
+        <v>5.48521482074809</v>
       </c>
       <c r="E27">
-        <v>0.69398170238784</v>
+        <v>3.12291766074528</v>
       </c>
       <c r="F27">
-        <v>1.011488725700856</v>
+        <v>4.551699265653851</v>
       </c>
       <c r="G27">
-        <v>7.209088375682228</v>
+        <v>32.44089769057003</v>
       </c>
       <c r="H27">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I27">
-        <v>130.706125589901</v>
+        <v>588.1775651545546</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>136.8133997436412</v>
+        <v>615.6602988463853</v>
       </c>
       <c r="C28">
-        <v>0.006442630272801592</v>
+        <v>0.02899183622760716</v>
       </c>
       <c r="D28">
-        <v>1.218936626832909</v>
+        <v>5.48521482074809</v>
       </c>
       <c r="E28">
-        <v>0.9389164208776658</v>
+        <v>4.225123893949497</v>
       </c>
       <c r="F28">
-        <v>0.7840997873650046</v>
+        <v>3.52844904314252</v>
       </c>
       <c r="G28">
-        <v>10.29869767954604</v>
+        <v>46.34413955795718</v>
       </c>
       <c r="H28">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I28">
-        <v>150.0926181986361</v>
+        <v>675.4167818938625</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>124.6714815413528</v>
+        <v>561.0216669360881</v>
       </c>
       <c r="C29">
-        <v>0.005553991614484131</v>
+        <v>0.02499296226517858</v>
       </c>
       <c r="D29">
-        <v>1.312700982743132</v>
+        <v>5.907154422344093</v>
       </c>
       <c r="E29">
-        <v>0.69398170238784</v>
+        <v>3.12291766074528</v>
       </c>
       <c r="F29">
-        <v>0.6429618256393038</v>
+        <v>2.893328215376867</v>
       </c>
       <c r="G29">
-        <v>4.376946513807069</v>
+        <v>19.69625931213181</v>
       </c>
       <c r="H29">
-        <v>0.0481879651508039</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I29">
-        <v>131.7518145226955</v>
+        <v>592.8831653521299</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>125.9724013487409</v>
+        <v>566.875806069334</v>
       </c>
       <c r="C30">
-        <v>0.003332394968690478</v>
+        <v>0.01499577735910715</v>
       </c>
       <c r="D30">
-        <v>1.172054448877797</v>
+        <v>5.274245019950086</v>
       </c>
       <c r="E30">
-        <v>0.6123367962245649</v>
+        <v>2.755515583010541</v>
       </c>
       <c r="F30">
-        <v>0.7840997873650046</v>
+        <v>3.52844904314252</v>
       </c>
       <c r="G30">
-        <v>8.496425585625483</v>
+        <v>38.23391513531467</v>
       </c>
       <c r="H30">
-        <v>0.06425062020107185</v>
+        <v>0.2891277909048233</v>
       </c>
       <c r="I30">
-        <v>137.1049009820035</v>
+        <v>616.9720544190155</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>126.4060412845369</v>
+        <v>568.827185780416</v>
       </c>
       <c r="C31">
-        <v>0.004443193291587304</v>
+        <v>0.01999436981214286</v>
       </c>
       <c r="D31">
-        <v>1.500229694563579</v>
+        <v>6.751033625536111</v>
       </c>
       <c r="E31">
-        <v>0.6531592493062023</v>
+        <v>2.93921662187791</v>
       </c>
       <c r="F31">
-        <v>0.9173967512170554</v>
+        <v>4.128285380476749</v>
       </c>
       <c r="G31">
-        <v>5.406816281761671</v>
+        <v>24.33067326792751</v>
       </c>
       <c r="H31">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I31">
-        <v>134.9202117647775</v>
+        <v>607.1409529414989</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>132.260180417783</v>
+        <v>595.1708118800236</v>
       </c>
       <c r="C32">
-        <v>0.0051096722853254</v>
+        <v>0.0229935252839643</v>
       </c>
       <c r="D32">
-        <v>1.172054448877797</v>
+        <v>5.274245019950086</v>
       </c>
       <c r="E32">
-        <v>0.8572715147143906</v>
+        <v>3.857721816214759</v>
       </c>
       <c r="F32">
-        <v>0.9173967512170554</v>
+        <v>4.128285380476749</v>
       </c>
       <c r="G32">
-        <v>5.921751165738972</v>
+        <v>26.6478802458254</v>
       </c>
       <c r="H32">
-        <v>0.0481879651508039</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I32">
-        <v>141.1819519357674</v>
+        <v>635.3187837109531</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>150.6898776891134</v>
+        <v>678.1044496010106</v>
       </c>
       <c r="C33">
-        <v>0.003554554633269843</v>
+        <v>0.01599549584971429</v>
       </c>
       <c r="D33">
-        <v>1.875287118204475</v>
+        <v>8.438792031920139</v>
       </c>
       <c r="E33">
-        <v>0.9797388739593037</v>
+        <v>4.408824932816866</v>
       </c>
       <c r="F33">
-        <v>0.854668768227855</v>
+        <v>3.846009457025348</v>
       </c>
       <c r="G33">
-        <v>5.664283723750327</v>
+        <v>25.48927675687646</v>
       </c>
       <c r="H33">
-        <v>0.0481879651508039</v>
+        <v>0.2168458431786175</v>
       </c>
       <c r="I33">
-        <v>160.1155986930394</v>
+        <v>720.5201941186778</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>183.4296928417122</v>
+        <v>825.4336177877052</v>
       </c>
       <c r="C34">
-        <v>0.005331831949904766</v>
+        <v>0.02399324377457144</v>
       </c>
       <c r="D34">
-        <v>1.172054448877797</v>
+        <v>5.274245019950086</v>
       </c>
       <c r="E34">
-        <v>0.8980939677960286</v>
+        <v>4.041422855082126</v>
       </c>
       <c r="F34">
-        <v>0.7448947979967544</v>
+        <v>3.352026590985395</v>
       </c>
       <c r="G34">
-        <v>4.119479071818418</v>
+        <v>18.53765582318287</v>
       </c>
       <c r="H34">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I34">
-        <v>190.3856096152014</v>
+        <v>856.7352432684064</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>179.0932934837521</v>
+        <v>805.9198206768845</v>
       </c>
       <c r="C35">
-        <v>0.001555117652055557</v>
+        <v>0.006998029434250005</v>
       </c>
       <c r="D35">
-        <v>1.265818804788021</v>
+        <v>5.696184621546091</v>
       </c>
       <c r="E35">
-        <v>1.061383780122579</v>
+        <v>4.776227010551604</v>
       </c>
       <c r="F35">
-        <v>0.3920498936825023</v>
+        <v>1.76422452157126</v>
       </c>
       <c r="G35">
-        <v>2.574674419886511</v>
+        <v>11.58603488948929</v>
       </c>
       <c r="H35">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I35">
-        <v>184.4209008099843</v>
+        <v>829.8940536449293</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>157.8449366297476</v>
+        <v>710.3022148338646</v>
       </c>
       <c r="C36">
-        <v>0.002665915974952383</v>
+        <v>0.01199662188728572</v>
       </c>
       <c r="D36">
-        <v>0.8907613811471259</v>
+        <v>4.008426215162066</v>
       </c>
       <c r="E36">
-        <v>1.428785857857318</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F36">
-        <v>0.2822759234514017</v>
+        <v>1.270241655531308</v>
       </c>
       <c r="G36">
-        <v>4.376946513807069</v>
+        <v>19.69625931213181</v>
       </c>
       <c r="H36">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I36">
-        <v>164.858497532086</v>
+        <v>741.8632388943875</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>124.0210216376588</v>
+        <v>558.0945973694649</v>
       </c>
       <c r="C37">
-        <v>0.001332957987476192</v>
+        <v>0.00599831094364286</v>
       </c>
       <c r="D37">
-        <v>0.7032326693266781</v>
+        <v>3.164547011970052</v>
       </c>
       <c r="E37">
-        <v>1.143028686285855</v>
+        <v>5.143629088286346</v>
       </c>
       <c r="F37">
-        <v>0.2509119319568016</v>
+        <v>1.129103693805607</v>
       </c>
       <c r="G37">
-        <v>2.317206977897859</v>
+        <v>10.42743140054038</v>
       </c>
       <c r="H37">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I37">
-        <v>128.4527975161638</v>
+        <v>578.0375888227371</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>97.35216558620421</v>
+        <v>438.084745137919</v>
       </c>
       <c r="C38">
-        <v>0.001999436981214287</v>
+        <v>0.008997466415464291</v>
       </c>
       <c r="D38">
-        <v>0.6563504913715661</v>
+        <v>2.953577211172047</v>
       </c>
       <c r="E38">
-        <v>1.306318498612405</v>
+        <v>5.878433243755819</v>
       </c>
       <c r="F38">
-        <v>0.164660955346651</v>
+        <v>0.7409742990599294</v>
       </c>
       <c r="G38">
-        <v>1.544804651931909</v>
+        <v>6.951620933693577</v>
       </c>
       <c r="I38">
-        <v>101.0262996204479</v>
+        <v>454.6183482920158</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>63.96189052991149</v>
+        <v>287.8285073846017</v>
       </c>
       <c r="C39">
-        <v>0.0008886386583174608</v>
+        <v>0.003998873962428573</v>
       </c>
       <c r="D39">
-        <v>0.2812930677306712</v>
+        <v>1.265818804788021</v>
       </c>
       <c r="E39">
-        <v>0.7348041554694774</v>
+        <v>3.30661869961265</v>
       </c>
       <c r="F39">
-        <v>0.1176149681047507</v>
+        <v>0.5292673564713782</v>
       </c>
       <c r="G39">
-        <v>1.802272093920557</v>
+        <v>8.110224422642508</v>
       </c>
       <c r="H39">
-        <v>0.01606265505026796</v>
+        <v>0.07228194772620583</v>
       </c>
       <c r="I39">
-        <v>66.91482610884552</v>
+        <v>301.1167174898048</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>33.17345508839476</v>
+        <v>149.2805478977765</v>
       </c>
       <c r="C40">
-        <v>0.002443756310373018</v>
+        <v>0.01099690339667858</v>
       </c>
       <c r="D40">
-        <v>0.3750574236408948</v>
+        <v>1.687758406384028</v>
       </c>
       <c r="E40">
-        <v>0.3265796246531011</v>
+        <v>1.469608310938955</v>
       </c>
       <c r="F40">
-        <v>0.1411379617257009</v>
+        <v>0.6351208277656538</v>
       </c>
       <c r="G40">
-        <v>1.287337209943255</v>
+        <v>5.793017444744647</v>
       </c>
       <c r="I40">
-        <v>35.30601106466808</v>
+        <v>158.8770497910064</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>22.76609662929052</v>
+        <v>102.4474348318073</v>
       </c>
       <c r="C41">
-        <v>0.001110798322896826</v>
+        <v>0.004998592453035716</v>
       </c>
       <c r="D41">
-        <v>0.09376435591022371</v>
+        <v>0.421939601596007</v>
       </c>
       <c r="F41">
-        <v>0.07056898086285043</v>
+        <v>0.3175604138828269</v>
       </c>
       <c r="G41">
-        <v>1.287337209943255</v>
+        <v>5.793017444744647</v>
       </c>
       <c r="I41">
-        <v>24.21887797432975</v>
+        <v>108.9849508844839</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>18.42969727133042</v>
+        <v>82.93363772098691</v>
       </c>
       <c r="C42">
-        <v>0.002221596645793652</v>
+        <v>0.009997184906071432</v>
       </c>
       <c r="D42">
-        <v>0.1875287118204474</v>
+        <v>0.8438792031920139</v>
       </c>
       <c r="E42">
-        <v>0.04082245308163764</v>
+        <v>0.1837010388673694</v>
       </c>
       <c r="F42">
-        <v>0.09409197448380056</v>
+        <v>0.4234138851771025</v>
       </c>
       <c r="G42">
-        <v>1.029869767954604</v>
+        <v>4.634413955795718</v>
       </c>
       <c r="H42">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I42">
-        <v>19.81635708541724</v>
+        <v>89.17360688437759</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>10.19053849120623</v>
+        <v>45.85742321042805</v>
       </c>
       <c r="C43">
-        <v>0.0006664789937380958</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D43">
-        <v>0.1875287118204474</v>
+        <v>0.8438792031920139</v>
       </c>
       <c r="F43">
-        <v>0.1019329723574506</v>
+        <v>0.4586983756085277</v>
       </c>
       <c r="G43">
-        <v>1.802272093920557</v>
+        <v>8.110224422642508</v>
       </c>
       <c r="I43">
-        <v>12.28293874829843</v>
+        <v>55.27322436734293</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>9.97371852330823</v>
+        <v>44.88173335488703</v>
       </c>
       <c r="C44">
-        <v>0.0006664789937380958</v>
+        <v>0.00299915547182143</v>
       </c>
       <c r="D44">
-        <v>0.1406465338653356</v>
+        <v>0.6329094023940106</v>
       </c>
       <c r="E44">
-        <v>0.1632898123265506</v>
+        <v>0.7348041554694774</v>
       </c>
       <c r="F44">
-        <v>0.06272798298920039</v>
+        <v>0.2822759234514017</v>
       </c>
       <c r="G44">
-        <v>0.5149348839773022</v>
+        <v>2.317206977897859</v>
       </c>
       <c r="I44">
-        <v>10.85598421546036</v>
+        <v>48.8519289695716</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>26.0183961477606</v>
+        <v>117.0827826649227</v>
       </c>
       <c r="C45">
-        <v>0.0002221596645793652</v>
+        <v>0.0009997184906071434</v>
       </c>
       <c r="D45">
-        <v>0.1875287118204474</v>
+        <v>0.8438792031920139</v>
       </c>
       <c r="E45">
-        <v>0.08164490616327529</v>
+        <v>0.3674020777347387</v>
       </c>
       <c r="F45">
-        <v>0.1019329723574506</v>
+        <v>0.4586983756085277</v>
       </c>
       <c r="G45">
-        <v>0.5149348839773022</v>
+        <v>2.317206977897859</v>
       </c>
       <c r="I45">
-        <v>26.90465978174366</v>
+        <v>121.0709690178465</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>75.01970889270974</v>
+        <v>337.5886900171936</v>
       </c>
       <c r="C46">
-        <v>0.001777277316634922</v>
+        <v>0.007997747924857147</v>
       </c>
       <c r="D46">
-        <v>0.7032326693266781</v>
+        <v>3.164547011970052</v>
       </c>
       <c r="E46">
-        <v>0.3674020777347387</v>
+        <v>1.653309349806325</v>
       </c>
       <c r="F46">
-        <v>0.3293219106933019</v>
+        <v>1.481948598119859</v>
       </c>
       <c r="G46">
-        <v>4.119479071818418</v>
+        <v>18.53765582318287</v>
       </c>
       <c r="I46">
-        <v>80.54092189959951</v>
+        <v>362.4341485481975</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>118.8173424081067</v>
+        <v>534.6780408364804</v>
       </c>
       <c r="C47">
-        <v>0.003110235304111113</v>
+        <v>0.01399605886850001</v>
       </c>
       <c r="D47">
-        <v>0.7501148472817897</v>
+        <v>3.375516812768056</v>
       </c>
       <c r="E47">
-        <v>1.428785857857318</v>
+        <v>6.429536360357932</v>
       </c>
       <c r="F47">
-        <v>0.5880748405237536</v>
+        <v>2.64633678235689</v>
       </c>
       <c r="G47">
-        <v>8.496425585625483</v>
+        <v>38.23391513531467</v>
       </c>
       <c r="H47">
-        <v>0.08031327525133983</v>
+        <v>0.3614097386310293</v>
       </c>
       <c r="I47">
-        <v>130.1641670499505</v>
+        <v>585.7387517247774</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>156.5440168223596</v>
+        <v>704.448075700618</v>
       </c>
       <c r="C48">
-        <v>0.001999436981214287</v>
+        <v>0.008997466415464291</v>
       </c>
       <c r="D48">
-        <v>1.172054448877797</v>
+        <v>5.274245019950086</v>
       </c>
       <c r="E48">
-        <v>1.551253217102231</v>
+        <v>6.980639476960037</v>
       </c>
       <c r="F48">
-        <v>0.6429618256393038</v>
+        <v>2.893328215376867</v>
       </c>
       <c r="G48">
-        <v>5.149348839773022</v>
+        <v>23.17206977897859</v>
       </c>
       <c r="H48">
-        <v>0.03212531010053592</v>
+        <v>0.1445638954524117</v>
       </c>
       <c r="I48">
-        <v>165.0937599008337</v>
+        <v>742.9219195537514</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>158.2785765655436</v>
+        <v>712.2535945449461</v>
       </c>
       <c r="C49">
-        <v>0.002221596645793652</v>
+        <v>0.009997184906071432</v>
       </c>
       <c r="D49">
-        <v>0.9376435591022375</v>
+        <v>4.219396015960069</v>
       </c>
       <c r="E49">
-        <v>1.061383780122579</v>
+        <v>4.776227010551604</v>
       </c>
       <c r="F49">
-        <v>0.4861418681663029</v>
+        <v>2.187638406748363</v>
       </c>
       <c r="G49">
-        <v>7.724023259659531</v>
+        <v>34.75810466846789</v>
       </c>
       <c r="H49">
-        <v>0.09637593030160779</v>
+        <v>0.4336916863572351</v>
       </c>
       <c r="I49">
-        <v>168.5863665595417</v>
+        <v>758.6386495179373</v>
       </c>
     </row>
   </sheetData>
